--- a/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
+++ b/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\state-eps-data-repository\NV\endo-learn\BGBSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\endo-learn\BGBSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A53D8B7E-FF8D-4E00-ADC6-CBF8A881DB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F003864B-0DEB-4A0F-AD2C-48D451586C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6630" yWindow="2220" windowWidth="15660" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,10 @@
     <sheet name="SYGBSC" sheetId="11" r:id="rId6"/>
     <sheet name="BGBSC" sheetId="6" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <definedNames>
     <definedName name="ec_50">'EV Sigmoid Fitting'!$B$4</definedName>
     <definedName name="max">'EV Sigmoid Fitting'!$B$3</definedName>
@@ -56,7 +60,7 @@
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -77,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
   <si>
     <t>BGBSC BAU Global Battery Storage Capacity</t>
   </si>
@@ -305,9 +309,6 @@
   <si>
     <t>data from the BNEF EVO.</t>
   </si>
-  <si>
-    <t>Nevada</t>
-  </si>
 </sst>
 </file>
 
@@ -472,7 +473,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -520,7 +521,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -665,106 +665,112 @@
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="24"/>
-              <c:pt idx="0">
-                <c:v>2017</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2018</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2019</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>2020</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>2021</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>2022</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>2023</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>2024</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>2025</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>2026</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>2027</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>2028</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>2029</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>2030</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>2031</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>2032</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>2033</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>2034</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>2035</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>2036</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>2037</c:v>
-              </c:pt>
-              <c:pt idx="21">
-                <c:v>2038</c:v>
-              </c:pt>
-              <c:pt idx="22">
-                <c:v>2039</c:v>
-              </c:pt>
-              <c:pt idx="23">
-                <c:v>2040</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'[1]EV Batteries'!$B$9:$Y$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2040</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="24"/>
-              <c:pt idx="0">
-                <c:v>1210000</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>10600000</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>21000000</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>40000000</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>55000000</c:v>
-              </c:pt>
-              <c:pt idx="23">
-                <c:v>72000000</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'[1]EV Batteries'!$B$13:$Y$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1210000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10600000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>72000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
@@ -1014,7 +1020,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>y</c:v>
+            <c:strRef>
+              <c:f>[2]Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1039,178 +1053,184 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="34"/>
-              <c:pt idx="0">
-                <c:v>2019</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2020</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2021</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>2022</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>2023</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>2024</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>2025</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>2026</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>2027</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>2028</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>2029</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>2030</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>2031</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>2032</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>2033</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>2034</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>2035</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>2036</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>2037</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>2038</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>2039</c:v>
-              </c:pt>
-              <c:pt idx="21">
-                <c:v>2040</c:v>
-              </c:pt>
-              <c:pt idx="22">
-                <c:v>2041</c:v>
-              </c:pt>
-              <c:pt idx="23">
-                <c:v>2042</c:v>
-              </c:pt>
-              <c:pt idx="24">
-                <c:v>2043</c:v>
-              </c:pt>
-              <c:pt idx="25">
-                <c:v>2044</c:v>
-              </c:pt>
-              <c:pt idx="26">
-                <c:v>2045</c:v>
-              </c:pt>
-              <c:pt idx="27">
-                <c:v>2046</c:v>
-              </c:pt>
-              <c:pt idx="28">
-                <c:v>2047</c:v>
-              </c:pt>
-              <c:pt idx="29">
-                <c:v>2048</c:v>
-              </c:pt>
-              <c:pt idx="30">
-                <c:v>2049</c:v>
-              </c:pt>
-              <c:pt idx="31">
-                <c:v>2050</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>[2]Sheet1!$F$2:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="34"/>
-              <c:pt idx="0">
-                <c:v>2375000</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1750000</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2500000</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>3875000</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>5375000</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>7000000</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>8500000</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>10375000</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>13625000</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>17125000</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>21000000</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>25500000</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>29250000</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>33375000</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>36625000</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>39750000</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>42625000</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>45250000</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>47375000</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>49375000</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>51625000</c:v>
-              </c:pt>
-              <c:pt idx="21">
-                <c:v>54125000</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>[2]Sheet1!$G$2:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>2375000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1750000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3875000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5375000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10375000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13625000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17125000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25500000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29250000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33375000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36625000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39750000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42625000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45250000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47375000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49375000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51625000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54125000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -1223,7 +1243,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>ycalc</c:v>
+            <c:strRef>
+              <c:f>[2]Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ycalc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1248,208 +1276,214 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="34"/>
-              <c:pt idx="0">
-                <c:v>2019</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2020</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2021</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>2022</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>2023</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>2024</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>2025</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>2026</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>2027</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>2028</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>2029</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>2030</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>2031</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>2032</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>2033</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>2034</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>2035</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>2036</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>2037</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>2038</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>2039</c:v>
-              </c:pt>
-              <c:pt idx="21">
-                <c:v>2040</c:v>
-              </c:pt>
-              <c:pt idx="22">
-                <c:v>2041</c:v>
-              </c:pt>
-              <c:pt idx="23">
-                <c:v>2042</c:v>
-              </c:pt>
-              <c:pt idx="24">
-                <c:v>2043</c:v>
-              </c:pt>
-              <c:pt idx="25">
-                <c:v>2044</c:v>
-              </c:pt>
-              <c:pt idx="26">
-                <c:v>2045</c:v>
-              </c:pt>
-              <c:pt idx="27">
-                <c:v>2046</c:v>
-              </c:pt>
-              <c:pt idx="28">
-                <c:v>2047</c:v>
-              </c:pt>
-              <c:pt idx="29">
-                <c:v>2048</c:v>
-              </c:pt>
-              <c:pt idx="30">
-                <c:v>2049</c:v>
-              </c:pt>
-              <c:pt idx="31">
-                <c:v>2050</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>[2]Sheet1!$F$2:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="34"/>
-              <c:pt idx="0">
-                <c:v>1389132.164056371</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2021843.2718926258</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2835096.85528416</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>3872186.6405841364</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>5181480.7302558515</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>6813588.8256108928</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>8816233.2840826623</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>11226473.258701244</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>14060660.844756193</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>17303745.690459114</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>20900972.172630183</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>24755807.045043826</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>28737059.300076034</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>32695224.467196576</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>36484206.532142162</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>39982014.338317864</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>43104531.090709515</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>45809663.601785377</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>48092978.656097099</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>49978278.595441304</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>51506844.678802423</c:v>
-              </c:pt>
-              <c:pt idx="21">
-                <c:v>52727977.781544022</c:v>
-              </c:pt>
-              <c:pt idx="22">
-                <c:v>53692031.914074436</c:v>
-              </c:pt>
-              <c:pt idx="23">
-                <c:v>54446041.034588695</c:v>
-              </c:pt>
-              <c:pt idx="24">
-                <c:v>55031465.127539933</c:v>
-              </c:pt>
-              <c:pt idx="25">
-                <c:v>55483417.471983574</c:v>
-              </c:pt>
-              <c:pt idx="26">
-                <c:v>55830797.702772141</c:v>
-              </c:pt>
-              <c:pt idx="27">
-                <c:v>56096900.262841031</c:v>
-              </c:pt>
-              <c:pt idx="28">
-                <c:v>56300214.433481641</c:v>
-              </c:pt>
-              <c:pt idx="29">
-                <c:v>56455248.150785372</c:v>
-              </c:pt>
-              <c:pt idx="30">
-                <c:v>56573288.007629298</c:v>
-              </c:pt>
-              <c:pt idx="31">
-                <c:v>56663058.09199407</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>[2]Sheet1!$H$2:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>1389132.164056371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021843.2718926258</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2835096.85528416</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3872186.6405841364</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5181480.7302558515</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6813588.8256108928</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8816233.2840826623</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11226473.258701244</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14060660.844756193</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17303745.690459114</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20900972.172630183</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24755807.045043826</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28737059.300076034</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32695224.467196576</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36484206.532142162</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39982014.338317864</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43104531.090709515</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45809663.601785377</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48092978.656097099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49978278.595441304</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51506844.678802423</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52727977.781544022</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53692031.914074436</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54446041.034588695</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>55031465.127539933</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>55483417.471983574</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>55830797.702772141</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56096900.262841031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56300214.433481641</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>56455248.150785372</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56573288.007629298</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>56663058.09199407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -1730,7 +1764,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>y</c:v>
+            <c:strRef>
+              <c:f>[2]Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1755,178 +1797,184 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="34"/>
-              <c:pt idx="0">
-                <c:v>2019</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2020</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2021</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>2022</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>2023</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>2024</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>2025</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>2026</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>2027</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>2028</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>2029</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>2030</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>2031</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>2032</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>2033</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>2034</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>2035</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>2036</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>2037</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>2038</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>2039</c:v>
-              </c:pt>
-              <c:pt idx="21">
-                <c:v>2040</c:v>
-              </c:pt>
-              <c:pt idx="22">
-                <c:v>2041</c:v>
-              </c:pt>
-              <c:pt idx="23">
-                <c:v>2042</c:v>
-              </c:pt>
-              <c:pt idx="24">
-                <c:v>2043</c:v>
-              </c:pt>
-              <c:pt idx="25">
-                <c:v>2044</c:v>
-              </c:pt>
-              <c:pt idx="26">
-                <c:v>2045</c:v>
-              </c:pt>
-              <c:pt idx="27">
-                <c:v>2046</c:v>
-              </c:pt>
-              <c:pt idx="28">
-                <c:v>2047</c:v>
-              </c:pt>
-              <c:pt idx="29">
-                <c:v>2048</c:v>
-              </c:pt>
-              <c:pt idx="30">
-                <c:v>2049</c:v>
-              </c:pt>
-              <c:pt idx="31">
-                <c:v>2050</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>[2]Sheet1!$F$2:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="34"/>
-              <c:pt idx="0">
-                <c:v>2375000</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>1750000</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2500000</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>3875000</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>5375000</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>7000000</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>8500000</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>10375000</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>13625000</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>17125000</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>21000000</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>25500000</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>29250000</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>33375000</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>36625000</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>39750000</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>42625000</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>45250000</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>47375000</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>49375000</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>51625000</c:v>
-              </c:pt>
-              <c:pt idx="21">
-                <c:v>54125000</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>[2]Sheet1!$G$2:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>2375000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1750000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3875000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5375000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10375000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13625000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17125000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21000000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25500000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>29250000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33375000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36625000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39750000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42625000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45250000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47375000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49375000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51625000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54125000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -1939,7 +1987,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>ycalc</c:v>
+            <c:strRef>
+              <c:f>[2]Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ycalc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1964,208 +2020,214 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="34"/>
-              <c:pt idx="0">
-                <c:v>2019</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2020</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2021</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>2022</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>2023</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>2024</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>2025</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>2026</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>2027</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>2028</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>2029</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>2030</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>2031</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>2032</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>2033</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>2034</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>2035</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>2036</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>2037</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>2038</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>2039</c:v>
-              </c:pt>
-              <c:pt idx="21">
-                <c:v>2040</c:v>
-              </c:pt>
-              <c:pt idx="22">
-                <c:v>2041</c:v>
-              </c:pt>
-              <c:pt idx="23">
-                <c:v>2042</c:v>
-              </c:pt>
-              <c:pt idx="24">
-                <c:v>2043</c:v>
-              </c:pt>
-              <c:pt idx="25">
-                <c:v>2044</c:v>
-              </c:pt>
-              <c:pt idx="26">
-                <c:v>2045</c:v>
-              </c:pt>
-              <c:pt idx="27">
-                <c:v>2046</c:v>
-              </c:pt>
-              <c:pt idx="28">
-                <c:v>2047</c:v>
-              </c:pt>
-              <c:pt idx="29">
-                <c:v>2048</c:v>
-              </c:pt>
-              <c:pt idx="30">
-                <c:v>2049</c:v>
-              </c:pt>
-              <c:pt idx="31">
-                <c:v>2050</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>[2]Sheet1!$F$2:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="34"/>
-              <c:pt idx="0">
-                <c:v>1389132.164056371</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2021843.2718926258</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2835096.85528416</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>3872186.6405841364</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>5181480.7302558515</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>6813588.8256108928</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>8816233.2840826623</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>11226473.258701244</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>14060660.844756193</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>17303745.690459114</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>20900972.172630183</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>24755807.045043826</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>28737059.300076034</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>32695224.467196576</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>36484206.532142162</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>39982014.338317864</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>43104531.090709515</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>45809663.601785377</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>48092978.656097099</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>49978278.595441304</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>51506844.678802423</c:v>
-              </c:pt>
-              <c:pt idx="21">
-                <c:v>52727977.781544022</c:v>
-              </c:pt>
-              <c:pt idx="22">
-                <c:v>53692031.914074436</c:v>
-              </c:pt>
-              <c:pt idx="23">
-                <c:v>54446041.034588695</c:v>
-              </c:pt>
-              <c:pt idx="24">
-                <c:v>55031465.127539933</c:v>
-              </c:pt>
-              <c:pt idx="25">
-                <c:v>55483417.471983574</c:v>
-              </c:pt>
-              <c:pt idx="26">
-                <c:v>55830797.702772141</c:v>
-              </c:pt>
-              <c:pt idx="27">
-                <c:v>56096900.262841031</c:v>
-              </c:pt>
-              <c:pt idx="28">
-                <c:v>56300214.433481641</c:v>
-              </c:pt>
-              <c:pt idx="29">
-                <c:v>56455248.150785372</c:v>
-              </c:pt>
-              <c:pt idx="30">
-                <c:v>56573288.007629298</c:v>
-              </c:pt>
-              <c:pt idx="31">
-                <c:v>56663058.09199407</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>[2]Sheet1!$H$2:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>1389132.164056371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2021843.2718926258</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2835096.85528416</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3872186.6405841364</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5181480.7302558515</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6813588.8256108928</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8816233.2840826623</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11226473.258701244</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14060660.844756193</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17303745.690459114</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20900972.172630183</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24755807.045043826</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28737059.300076034</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>32695224.467196576</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>36484206.532142162</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39982014.338317864</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43104531.090709515</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45809663.601785377</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48092978.656097099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49978278.595441304</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>51506844.678802423</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52727977.781544022</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53692031.914074436</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>54446041.034588695</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>55031465.127539933</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>55483417.471983574</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>55830797.702772141</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>56096900.262841031</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56300214.433481641</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>56455248.150785372</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>56573288.007629298</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>56663058.09199407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -2476,7 +2538,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>EV battery new sales (MWh)</c:v>
+            <c:strRef>
+              <c:f>[1]Calculations!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EV battery new sales (MWh)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2503,148 +2573,154 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="32"/>
-              <c:pt idx="0">
-                <c:v>2019</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2020</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2021</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>2022</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>2023</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>2024</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>2025</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>2026</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>2027</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>2028</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>2029</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>2030</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>2031</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>2032</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>2033</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>2034</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>2035</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>2036</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>2037</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>2038</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>2039</c:v>
-              </c:pt>
-              <c:pt idx="21">
-                <c:v>2040</c:v>
-              </c:pt>
-              <c:pt idx="22">
-                <c:v>2041</c:v>
-              </c:pt>
-              <c:pt idx="23">
-                <c:v>2042</c:v>
-              </c:pt>
-              <c:pt idx="24">
-                <c:v>2043</c:v>
-              </c:pt>
-              <c:pt idx="25">
-                <c:v>2044</c:v>
-              </c:pt>
-              <c:pt idx="26">
-                <c:v>2045</c:v>
-              </c:pt>
-              <c:pt idx="27">
-                <c:v>2046</c:v>
-              </c:pt>
-              <c:pt idx="28">
-                <c:v>2047</c:v>
-              </c:pt>
-              <c:pt idx="29">
-                <c:v>2048</c:v>
-              </c:pt>
-              <c:pt idx="30">
-                <c:v>2049</c:v>
-              </c:pt>
-              <c:pt idx="31">
-                <c:v>2050</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>[1]Calculations!$B$11:$AG$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="32"/>
-              <c:pt idx="0">
-                <c:v>230000</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>490909.09090909094</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>751818.18181818188</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>1012727.2727272727</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>1273636.3636363638</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>1534545.4545454548</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>1795454.5454545456</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>2056363.6363636365</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>2317272.7272727275</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>2578181.8181818184</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>2839090.9090909096</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>3100000</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>[1]Calculations!$B$12:$AG$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>230000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>490909.09090909094</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>751818.18181818188</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1012727.2727272727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1273636.3636363638</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1534545.4545454548</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1795454.5454545456</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2056363.6363636365</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2317272.7272727275</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2578181.8181818184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2839090.9090909096</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
@@ -2657,7 +2733,15 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>EV battery new sales, extrapolated 2031-2040 (GWh)</c:v>
+            <c:strRef>
+              <c:f>[1]Calculations!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EV battery new sales, extrapolated 2031-2040 (GWh)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2684,142 +2768,148 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="32"/>
-              <c:pt idx="0">
-                <c:v>2019</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2020</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2021</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>2022</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>2023</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>2024</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>2025</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>2026</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>2027</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>2028</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>2029</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>2030</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>2031</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>2032</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>2033</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>2034</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>2035</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>2036</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>2037</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>2038</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>2039</c:v>
-              </c:pt>
-              <c:pt idx="21">
-                <c:v>2040</c:v>
-              </c:pt>
-              <c:pt idx="22">
-                <c:v>2041</c:v>
-              </c:pt>
-              <c:pt idx="23">
-                <c:v>2042</c:v>
-              </c:pt>
-              <c:pt idx="24">
-                <c:v>2043</c:v>
-              </c:pt>
-              <c:pt idx="25">
-                <c:v>2044</c:v>
-              </c:pt>
-              <c:pt idx="26">
-                <c:v>2045</c:v>
-              </c:pt>
-              <c:pt idx="27">
-                <c:v>2046</c:v>
-              </c:pt>
-              <c:pt idx="28">
-                <c:v>2047</c:v>
-              </c:pt>
-              <c:pt idx="29">
-                <c:v>2048</c:v>
-              </c:pt>
-              <c:pt idx="30">
-                <c:v>2049</c:v>
-              </c:pt>
-              <c:pt idx="31">
-                <c:v>2050</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>[1]Calculations!$B$11:$AG$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="36"/>
-              <c:pt idx="12">
-                <c:v>3424790.5975175635</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>3746501.3723235992</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>4059905.3441759855</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>4360313.8003408825</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>4643834.5503812227</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>4907531.6444603689</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>5149479.4152991604</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>5368721.7605243968</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>5565159.8514983393</c:v>
-              </c:pt>
-              <c:pt idx="21">
-                <c:v>5739396.454520884</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>[1]Calculations!$B$13:$AK$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="12">
+                  <c:v>3424790.5975175635</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3746501.3723235992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4059905.3441759855</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4360313.8003408825</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4643834.5503812227</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4907531.6444603689</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5149479.4152991604</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5368721.7605243968</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5565159.8514983393</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5739396.454520884</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
@@ -2832,7 +2922,15 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>EV battery new sales, extrapolated 2041-2050 (GWh)</c:v>
+            <c:strRef>
+              <c:f>[1]Calculations!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EV battery new sales, extrapolated 2041-2050 (GWh)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2859,142 +2957,148 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="32"/>
-              <c:pt idx="0">
-                <c:v>2019</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2020</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2021</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>2022</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>2023</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>2024</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>2025</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>2026</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>2027</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>2028</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>2029</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>2030</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>2031</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>2032</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>2033</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>2034</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>2035</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>2036</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>2037</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>2038</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>2039</c:v>
-              </c:pt>
-              <c:pt idx="21">
-                <c:v>2040</c:v>
-              </c:pt>
-              <c:pt idx="22">
-                <c:v>2041</c:v>
-              </c:pt>
-              <c:pt idx="23">
-                <c:v>2042</c:v>
-              </c:pt>
-              <c:pt idx="24">
-                <c:v>2043</c:v>
-              </c:pt>
-              <c:pt idx="25">
-                <c:v>2044</c:v>
-              </c:pt>
-              <c:pt idx="26">
-                <c:v>2045</c:v>
-              </c:pt>
-              <c:pt idx="27">
-                <c:v>2046</c:v>
-              </c:pt>
-              <c:pt idx="28">
-                <c:v>2047</c:v>
-              </c:pt>
-              <c:pt idx="29">
-                <c:v>2048</c:v>
-              </c:pt>
-              <c:pt idx="30">
-                <c:v>2049</c:v>
-              </c:pt>
-              <c:pt idx="31">
-                <c:v>2050</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>[1]Calculations!$B$11:$AG$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="36"/>
-              <c:pt idx="22">
-                <c:v>5892563.6833218094</c:v>
-              </c:pt>
-              <c:pt idx="23">
-                <c:v>6026155.5256387582</c:v>
-              </c:pt>
-              <c:pt idx="24">
-                <c:v>6141879.3779363325</c:v>
-              </c:pt>
-              <c:pt idx="25">
-                <c:v>6241534.0085637206</c:v>
-              </c:pt>
-              <c:pt idx="26">
-                <c:v>6326915.950859325</c:v>
-              </c:pt>
-              <c:pt idx="27">
-                <c:v>6399752.6614421792</c:v>
-              </c:pt>
-              <c:pt idx="28">
-                <c:v>6461658.7298551602</c:v>
-              </c:pt>
-              <c:pt idx="29">
-                <c:v>6514110.623151809</c:v>
-              </c:pt>
-              <c:pt idx="30">
-                <c:v>6558435.4749555839</c:v>
-              </c:pt>
-              <c:pt idx="31">
-                <c:v>6595809.921999068</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>[1]Calculations!$B$14:$AK$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="22">
+                  <c:v>5892563.6833218094</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6026155.5256387582</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6141879.3779363325</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6241534.0085637206</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6326915.950859325</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6399752.6614421792</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6461658.7298551602</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6514110.623151809</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6558435.4749555839</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6595809.921999068</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
@@ -3270,7 +3374,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>EV battery cap, cumulative (MWh)</c:v>
+            <c:strRef>
+              <c:f>[1]Calculations!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EV battery cap, cumulative (MWh)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3297,208 +3409,214 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="32"/>
-              <c:pt idx="0">
-                <c:v>2019</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2020</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>2021</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>2022</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>2023</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>2024</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>2025</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>2026</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>2027</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>2028</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>2029</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>2030</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>2031</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>2032</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>2033</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>2034</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>2035</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>2036</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>2037</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>2038</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>2039</c:v>
-              </c:pt>
-              <c:pt idx="21">
-                <c:v>2040</c:v>
-              </c:pt>
-              <c:pt idx="22">
-                <c:v>2041</c:v>
-              </c:pt>
-              <c:pt idx="23">
-                <c:v>2042</c:v>
-              </c:pt>
-              <c:pt idx="24">
-                <c:v>2043</c:v>
-              </c:pt>
-              <c:pt idx="25">
-                <c:v>2044</c:v>
-              </c:pt>
-              <c:pt idx="26">
-                <c:v>2045</c:v>
-              </c:pt>
-              <c:pt idx="27">
-                <c:v>2046</c:v>
-              </c:pt>
-              <c:pt idx="28">
-                <c:v>2047</c:v>
-              </c:pt>
-              <c:pt idx="29">
-                <c:v>2048</c:v>
-              </c:pt>
-              <c:pt idx="30">
-                <c:v>2049</c:v>
-              </c:pt>
-              <c:pt idx="31">
-                <c:v>2050</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>[1]Calculations!$C$16:$AH$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="32"/>
-              <c:pt idx="0">
-                <c:v>2730000</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>3220909.0909090908</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>3972727.2727272725</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>4985454.5454545449</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>6259090.9090909082</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>7793636.3636363633</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>9589090.9090909082</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>11645454.545454545</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>13962727.272727273</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>16540909.090909092</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>19380000</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>22480000</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>25904790.597517565</c:v>
-              </c:pt>
-              <c:pt idx="13">
-                <c:v>29651291.969841164</c:v>
-              </c:pt>
-              <c:pt idx="14">
-                <c:v>33711197.314017147</c:v>
-              </c:pt>
-              <c:pt idx="15">
-                <c:v>38071511.11435803</c:v>
-              </c:pt>
-              <c:pt idx="16">
-                <c:v>42715345.664739251</c:v>
-              </c:pt>
-              <c:pt idx="17">
-                <c:v>47622877.309199616</c:v>
-              </c:pt>
-              <c:pt idx="18">
-                <c:v>52772356.724498779</c:v>
-              </c:pt>
-              <c:pt idx="19">
-                <c:v>58141078.485023178</c:v>
-              </c:pt>
-              <c:pt idx="20">
-                <c:v>63706238.336521521</c:v>
-              </c:pt>
-              <c:pt idx="21">
-                <c:v>69445634.791042402</c:v>
-              </c:pt>
-              <c:pt idx="22">
-                <c:v>75338198.474364206</c:v>
-              </c:pt>
-              <c:pt idx="23">
-                <c:v>81364354.000002965</c:v>
-              </c:pt>
-              <c:pt idx="24">
-                <c:v>87506233.377939299</c:v>
-              </c:pt>
-              <c:pt idx="25">
-                <c:v>93747767.386503026</c:v>
-              </c:pt>
-              <c:pt idx="26">
-                <c:v>100074683.33736235</c:v>
-              </c:pt>
-              <c:pt idx="27">
-                <c:v>106474435.99880452</c:v>
-              </c:pt>
-              <c:pt idx="28">
-                <c:v>112936094.72865969</c:v>
-              </c:pt>
-              <c:pt idx="29">
-                <c:v>119450205.3518115</c:v>
-              </c:pt>
-              <c:pt idx="30">
-                <c:v>126008640.82676709</c:v>
-              </c:pt>
-              <c:pt idx="31">
-                <c:v>132604450.74876615</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>[1]Calculations!$C$17:$AH$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>2730000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3220909.0909090908</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3972727.2727272725</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4985454.5454545449</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6259090.9090909082</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7793636.3636363633</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9589090.9090909082</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11645454.545454545</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13962727.272727273</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16540909.090909092</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19380000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22480000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>25904790.597517565</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>29651291.969841164</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>33711197.314017147</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38071511.11435803</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42715345.664739251</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47622877.309199616</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>52772356.724498779</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58141078.485023178</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>63706238.336521521</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>69445634.791042402</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>75338198.474364206</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>81364354.000002965</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>87506233.377939299</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>93747767.386503026</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100074683.33736235</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>106474435.99880452</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>112936094.72865969</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>119450205.3518115</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>126008640.82676709</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>132604450.74876615</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -7019,6 +7137,1126 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="Grid Battery Storage"/>
+      <sheetName val="EV Sigmoid Fitting"/>
+      <sheetName val="EV Batteries"/>
+      <sheetName val="Calculations"/>
+      <sheetName val="BGBSC BNEF 2022 historical data"/>
+      <sheetName val="BGBSC BNEF 2023 projection"/>
+      <sheetName val="BGBSC DOE 2022 historical data"/>
+      <sheetName val="BGBSC BNEF 2022 historic 18.9%"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="4">
+          <cell r="B4">
+            <v>2020</v>
+          </cell>
+          <cell r="C4">
+            <v>2025</v>
+          </cell>
+          <cell r="D4">
+            <v>2030</v>
+          </cell>
+          <cell r="E4">
+            <v>2035</v>
+          </cell>
+          <cell r="F4">
+            <v>2040</v>
+          </cell>
+          <cell r="G4">
+            <v>2045</v>
+          </cell>
+          <cell r="H4">
+            <v>2050</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>23809.523809523806</v>
+          </cell>
+          <cell r="C6">
+            <v>154761.90476190476</v>
+          </cell>
+          <cell r="D6">
+            <v>571428.57142857148</v>
+          </cell>
+          <cell r="E6">
+            <v>1142857.142857143</v>
+          </cell>
+          <cell r="F6">
+            <v>2023809.5238095236</v>
+          </cell>
+          <cell r="G6">
+            <v>3214285.7142857141</v>
+          </cell>
+          <cell r="H6">
+            <v>4345238.0952380942</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>2020</v>
+          </cell>
+          <cell r="D8">
+            <v>2021</v>
+          </cell>
+          <cell r="E8">
+            <v>2022</v>
+          </cell>
+          <cell r="F8">
+            <v>2023</v>
+          </cell>
+          <cell r="G8">
+            <v>2024</v>
+          </cell>
+          <cell r="H8">
+            <v>2025</v>
+          </cell>
+          <cell r="I8">
+            <v>2026</v>
+          </cell>
+          <cell r="J8">
+            <v>2027</v>
+          </cell>
+          <cell r="K8">
+            <v>2028</v>
+          </cell>
+          <cell r="L8">
+            <v>2029</v>
+          </cell>
+          <cell r="M8">
+            <v>2030</v>
+          </cell>
+          <cell r="N8">
+            <v>2031</v>
+          </cell>
+          <cell r="O8">
+            <v>2032</v>
+          </cell>
+          <cell r="P8">
+            <v>2033</v>
+          </cell>
+          <cell r="Q8">
+            <v>2034</v>
+          </cell>
+          <cell r="R8">
+            <v>2035</v>
+          </cell>
+          <cell r="S8">
+            <v>2036</v>
+          </cell>
+          <cell r="T8">
+            <v>2037</v>
+          </cell>
+          <cell r="U8">
+            <v>2038</v>
+          </cell>
+          <cell r="V8">
+            <v>2039</v>
+          </cell>
+          <cell r="W8">
+            <v>2040</v>
+          </cell>
+          <cell r="X8">
+            <v>2041</v>
+          </cell>
+          <cell r="Y8">
+            <v>2042</v>
+          </cell>
+          <cell r="Z8">
+            <v>2043</v>
+          </cell>
+          <cell r="AA8">
+            <v>2044</v>
+          </cell>
+          <cell r="AB8">
+            <v>2045</v>
+          </cell>
+          <cell r="AC8">
+            <v>2046</v>
+          </cell>
+          <cell r="AD8">
+            <v>2047</v>
+          </cell>
+          <cell r="AE8">
+            <v>2048</v>
+          </cell>
+          <cell r="AF8">
+            <v>2049</v>
+          </cell>
+          <cell r="AG8">
+            <v>2050</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="9">
+          <cell r="B9">
+            <v>2017</v>
+          </cell>
+          <cell r="C9">
+            <v>2018</v>
+          </cell>
+          <cell r="D9">
+            <v>2019</v>
+          </cell>
+          <cell r="E9">
+            <v>2020</v>
+          </cell>
+          <cell r="F9">
+            <v>2021</v>
+          </cell>
+          <cell r="G9">
+            <v>2022</v>
+          </cell>
+          <cell r="H9">
+            <v>2023</v>
+          </cell>
+          <cell r="I9">
+            <v>2024</v>
+          </cell>
+          <cell r="J9">
+            <v>2025</v>
+          </cell>
+          <cell r="K9">
+            <v>2026</v>
+          </cell>
+          <cell r="L9">
+            <v>2027</v>
+          </cell>
+          <cell r="M9">
+            <v>2028</v>
+          </cell>
+          <cell r="N9">
+            <v>2029</v>
+          </cell>
+          <cell r="O9">
+            <v>2030</v>
+          </cell>
+          <cell r="P9">
+            <v>2031</v>
+          </cell>
+          <cell r="Q9">
+            <v>2032</v>
+          </cell>
+          <cell r="R9">
+            <v>2033</v>
+          </cell>
+          <cell r="S9">
+            <v>2034</v>
+          </cell>
+          <cell r="T9">
+            <v>2035</v>
+          </cell>
+          <cell r="U9">
+            <v>2036</v>
+          </cell>
+          <cell r="V9">
+            <v>2037</v>
+          </cell>
+          <cell r="W9">
+            <v>2038</v>
+          </cell>
+          <cell r="X9">
+            <v>2039</v>
+          </cell>
+          <cell r="Y9">
+            <v>2040</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>230</v>
+          </cell>
+          <cell r="E10">
+            <v>490.90909090909093</v>
+          </cell>
+          <cell r="F10">
+            <v>751.81818181818187</v>
+          </cell>
+          <cell r="G10">
+            <v>1012.7272727272727</v>
+          </cell>
+          <cell r="H10">
+            <v>1273.6363636363637</v>
+          </cell>
+          <cell r="I10">
+            <v>1534.5454545454547</v>
+          </cell>
+          <cell r="J10">
+            <v>1795.4545454545457</v>
+          </cell>
+          <cell r="K10">
+            <v>2056.3636363636365</v>
+          </cell>
+          <cell r="L10">
+            <v>2317.2727272727275</v>
+          </cell>
+          <cell r="M10">
+            <v>2578.1818181818185</v>
+          </cell>
+          <cell r="N10">
+            <v>2839.0909090909095</v>
+          </cell>
+          <cell r="O10">
+            <v>3100</v>
+          </cell>
+          <cell r="P10">
+            <v>3424.7905975175636</v>
+          </cell>
+          <cell r="Q10">
+            <v>3746.5013723235993</v>
+          </cell>
+          <cell r="R10">
+            <v>4059.9053441759856</v>
+          </cell>
+          <cell r="S10">
+            <v>4360.3138003408822</v>
+          </cell>
+          <cell r="T10">
+            <v>4643.8345503812225</v>
+          </cell>
+          <cell r="U10">
+            <v>4907.5316444603686</v>
+          </cell>
+          <cell r="V10">
+            <v>5149.4794152991608</v>
+          </cell>
+          <cell r="W10">
+            <v>5368.7217605243968</v>
+          </cell>
+          <cell r="X10">
+            <v>5565.1598514983398</v>
+          </cell>
+          <cell r="Y10">
+            <v>5739.3964545208837</v>
+          </cell>
+          <cell r="Z10">
+            <v>5892.5636833218095</v>
+          </cell>
+          <cell r="AA10">
+            <v>6026.1555256387583</v>
+          </cell>
+          <cell r="AB10">
+            <v>6141.8793779363323</v>
+          </cell>
+          <cell r="AC10">
+            <v>6241.5340085637208</v>
+          </cell>
+          <cell r="AD10">
+            <v>6326.9159508593248</v>
+          </cell>
+          <cell r="AE10">
+            <v>6399.7526614421795</v>
+          </cell>
+          <cell r="AF10">
+            <v>6461.6587298551603</v>
+          </cell>
+          <cell r="AG10">
+            <v>6514.1106231518088</v>
+          </cell>
+          <cell r="AH10">
+            <v>6558.4354749555841</v>
+          </cell>
+          <cell r="AI10">
+            <v>6595.8099219990681</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>1210000</v>
+          </cell>
+          <cell r="G13">
+            <v>10600000</v>
+          </cell>
+          <cell r="J13">
+            <v>21000000</v>
+          </cell>
+          <cell r="O13">
+            <v>40000000</v>
+          </cell>
+          <cell r="T13">
+            <v>55000000</v>
+          </cell>
+          <cell r="Y13">
+            <v>72000000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="11">
+          <cell r="B11">
+            <v>2019</v>
+          </cell>
+          <cell r="C11">
+            <v>2020</v>
+          </cell>
+          <cell r="D11">
+            <v>2021</v>
+          </cell>
+          <cell r="E11">
+            <v>2022</v>
+          </cell>
+          <cell r="F11">
+            <v>2023</v>
+          </cell>
+          <cell r="G11">
+            <v>2024</v>
+          </cell>
+          <cell r="H11">
+            <v>2025</v>
+          </cell>
+          <cell r="I11">
+            <v>2026</v>
+          </cell>
+          <cell r="J11">
+            <v>2027</v>
+          </cell>
+          <cell r="K11">
+            <v>2028</v>
+          </cell>
+          <cell r="L11">
+            <v>2029</v>
+          </cell>
+          <cell r="M11">
+            <v>2030</v>
+          </cell>
+          <cell r="N11">
+            <v>2031</v>
+          </cell>
+          <cell r="O11">
+            <v>2032</v>
+          </cell>
+          <cell r="P11">
+            <v>2033</v>
+          </cell>
+          <cell r="Q11">
+            <v>2034</v>
+          </cell>
+          <cell r="R11">
+            <v>2035</v>
+          </cell>
+          <cell r="S11">
+            <v>2036</v>
+          </cell>
+          <cell r="T11">
+            <v>2037</v>
+          </cell>
+          <cell r="U11">
+            <v>2038</v>
+          </cell>
+          <cell r="V11">
+            <v>2039</v>
+          </cell>
+          <cell r="W11">
+            <v>2040</v>
+          </cell>
+          <cell r="X11">
+            <v>2041</v>
+          </cell>
+          <cell r="Y11">
+            <v>2042</v>
+          </cell>
+          <cell r="Z11">
+            <v>2043</v>
+          </cell>
+          <cell r="AA11">
+            <v>2044</v>
+          </cell>
+          <cell r="AB11">
+            <v>2045</v>
+          </cell>
+          <cell r="AC11">
+            <v>2046</v>
+          </cell>
+          <cell r="AD11">
+            <v>2047</v>
+          </cell>
+          <cell r="AE11">
+            <v>2048</v>
+          </cell>
+          <cell r="AF11">
+            <v>2049</v>
+          </cell>
+          <cell r="AG11">
+            <v>2050</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>EV battery new sales (MWh)</v>
+          </cell>
+          <cell r="B12">
+            <v>230000</v>
+          </cell>
+          <cell r="C12">
+            <v>490909.09090909094</v>
+          </cell>
+          <cell r="D12">
+            <v>751818.18181818188</v>
+          </cell>
+          <cell r="E12">
+            <v>1012727.2727272727</v>
+          </cell>
+          <cell r="F12">
+            <v>1273636.3636363638</v>
+          </cell>
+          <cell r="G12">
+            <v>1534545.4545454548</v>
+          </cell>
+          <cell r="H12">
+            <v>1795454.5454545456</v>
+          </cell>
+          <cell r="I12">
+            <v>2056363.6363636365</v>
+          </cell>
+          <cell r="J12">
+            <v>2317272.7272727275</v>
+          </cell>
+          <cell r="K12">
+            <v>2578181.8181818184</v>
+          </cell>
+          <cell r="L12">
+            <v>2839090.9090909096</v>
+          </cell>
+          <cell r="M12">
+            <v>3100000</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>EV battery new sales, extrapolated 2031-2040 (GWh)</v>
+          </cell>
+          <cell r="N13">
+            <v>3424790.5975175635</v>
+          </cell>
+          <cell r="O13">
+            <v>3746501.3723235992</v>
+          </cell>
+          <cell r="P13">
+            <v>4059905.3441759855</v>
+          </cell>
+          <cell r="Q13">
+            <v>4360313.8003408825</v>
+          </cell>
+          <cell r="R13">
+            <v>4643834.5503812227</v>
+          </cell>
+          <cell r="S13">
+            <v>4907531.6444603689</v>
+          </cell>
+          <cell r="T13">
+            <v>5149479.4152991604</v>
+          </cell>
+          <cell r="U13">
+            <v>5368721.7605243968</v>
+          </cell>
+          <cell r="V13">
+            <v>5565159.8514983393</v>
+          </cell>
+          <cell r="W13">
+            <v>5739396.454520884</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>EV battery new sales, extrapolated 2041-2050 (GWh)</v>
+          </cell>
+          <cell r="X14">
+            <v>5892563.6833218094</v>
+          </cell>
+          <cell r="Y14">
+            <v>6026155.5256387582</v>
+          </cell>
+          <cell r="Z14">
+            <v>6141879.3779363325</v>
+          </cell>
+          <cell r="AA14">
+            <v>6241534.0085637206</v>
+          </cell>
+          <cell r="AB14">
+            <v>6326915.950859325</v>
+          </cell>
+          <cell r="AC14">
+            <v>6399752.6614421792</v>
+          </cell>
+          <cell r="AD14">
+            <v>6461658.7298551602</v>
+          </cell>
+          <cell r="AE14">
+            <v>6514110.623151809</v>
+          </cell>
+          <cell r="AF14">
+            <v>6558435.4749555839</v>
+          </cell>
+          <cell r="AG14">
+            <v>6595809.921999068</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>2019</v>
+          </cell>
+          <cell r="D16">
+            <v>2020</v>
+          </cell>
+          <cell r="E16">
+            <v>2021</v>
+          </cell>
+          <cell r="F16">
+            <v>2022</v>
+          </cell>
+          <cell r="G16">
+            <v>2023</v>
+          </cell>
+          <cell r="H16">
+            <v>2024</v>
+          </cell>
+          <cell r="I16">
+            <v>2025</v>
+          </cell>
+          <cell r="J16">
+            <v>2026</v>
+          </cell>
+          <cell r="K16">
+            <v>2027</v>
+          </cell>
+          <cell r="L16">
+            <v>2028</v>
+          </cell>
+          <cell r="M16">
+            <v>2029</v>
+          </cell>
+          <cell r="N16">
+            <v>2030</v>
+          </cell>
+          <cell r="O16">
+            <v>2031</v>
+          </cell>
+          <cell r="P16">
+            <v>2032</v>
+          </cell>
+          <cell r="Q16">
+            <v>2033</v>
+          </cell>
+          <cell r="R16">
+            <v>2034</v>
+          </cell>
+          <cell r="S16">
+            <v>2035</v>
+          </cell>
+          <cell r="T16">
+            <v>2036</v>
+          </cell>
+          <cell r="U16">
+            <v>2037</v>
+          </cell>
+          <cell r="V16">
+            <v>2038</v>
+          </cell>
+          <cell r="W16">
+            <v>2039</v>
+          </cell>
+          <cell r="X16">
+            <v>2040</v>
+          </cell>
+          <cell r="Y16">
+            <v>2041</v>
+          </cell>
+          <cell r="Z16">
+            <v>2042</v>
+          </cell>
+          <cell r="AA16">
+            <v>2043</v>
+          </cell>
+          <cell r="AB16">
+            <v>2044</v>
+          </cell>
+          <cell r="AC16">
+            <v>2045</v>
+          </cell>
+          <cell r="AD16">
+            <v>2046</v>
+          </cell>
+          <cell r="AE16">
+            <v>2047</v>
+          </cell>
+          <cell r="AF16">
+            <v>2048</v>
+          </cell>
+          <cell r="AG16">
+            <v>2049</v>
+          </cell>
+          <cell r="AH16">
+            <v>2050</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>EV battery cap, cumulative (MWh)</v>
+          </cell>
+          <cell r="C17">
+            <v>2730000</v>
+          </cell>
+          <cell r="D17">
+            <v>3220909.0909090908</v>
+          </cell>
+          <cell r="E17">
+            <v>3972727.2727272725</v>
+          </cell>
+          <cell r="F17">
+            <v>4985454.5454545449</v>
+          </cell>
+          <cell r="G17">
+            <v>6259090.9090909082</v>
+          </cell>
+          <cell r="H17">
+            <v>7793636.3636363633</v>
+          </cell>
+          <cell r="I17">
+            <v>9589090.9090909082</v>
+          </cell>
+          <cell r="J17">
+            <v>11645454.545454545</v>
+          </cell>
+          <cell r="K17">
+            <v>13962727.272727273</v>
+          </cell>
+          <cell r="L17">
+            <v>16540909.090909092</v>
+          </cell>
+          <cell r="M17">
+            <v>19380000</v>
+          </cell>
+          <cell r="N17">
+            <v>22480000</v>
+          </cell>
+          <cell r="O17">
+            <v>25904790.597517565</v>
+          </cell>
+          <cell r="P17">
+            <v>29651291.969841164</v>
+          </cell>
+          <cell r="Q17">
+            <v>33711197.314017147</v>
+          </cell>
+          <cell r="R17">
+            <v>38071511.11435803</v>
+          </cell>
+          <cell r="S17">
+            <v>42715345.664739251</v>
+          </cell>
+          <cell r="T17">
+            <v>47622877.309199616</v>
+          </cell>
+          <cell r="U17">
+            <v>52772356.724498779</v>
+          </cell>
+          <cell r="V17">
+            <v>58141078.485023178</v>
+          </cell>
+          <cell r="W17">
+            <v>63706238.336521521</v>
+          </cell>
+          <cell r="X17">
+            <v>69445634.791042402</v>
+          </cell>
+          <cell r="Y17">
+            <v>75338198.474364206</v>
+          </cell>
+          <cell r="Z17">
+            <v>81364354.000002965</v>
+          </cell>
+          <cell r="AA17">
+            <v>87506233.377939299</v>
+          </cell>
+          <cell r="AB17">
+            <v>93747767.386503026</v>
+          </cell>
+          <cell r="AC17">
+            <v>100074683.33736235</v>
+          </cell>
+          <cell r="AD17">
+            <v>106474435.99880452</v>
+          </cell>
+          <cell r="AE17">
+            <v>112936094.72865969</v>
+          </cell>
+          <cell r="AF17">
+            <v>119450205.3518115</v>
+          </cell>
+          <cell r="AG17">
+            <v>126008640.82676709</v>
+          </cell>
+          <cell r="AH17">
+            <v>132604450.74876615</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="G1" t="str">
+            <v>y</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>ycalc</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="F2">
+            <v>2019</v>
+          </cell>
+          <cell r="G2">
+            <v>2375000</v>
+          </cell>
+          <cell r="H2">
+            <v>1389132.164056371</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="F3">
+            <v>2020</v>
+          </cell>
+          <cell r="G3">
+            <v>1750000</v>
+          </cell>
+          <cell r="H3">
+            <v>2021843.2718926258</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="F4">
+            <v>2021</v>
+          </cell>
+          <cell r="G4">
+            <v>2500000</v>
+          </cell>
+          <cell r="H4">
+            <v>2835096.85528416</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="F5">
+            <v>2022</v>
+          </cell>
+          <cell r="G5">
+            <v>3875000</v>
+          </cell>
+          <cell r="H5">
+            <v>3872186.6405841364</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="F6">
+            <v>2023</v>
+          </cell>
+          <cell r="G6">
+            <v>5375000</v>
+          </cell>
+          <cell r="H6">
+            <v>5181480.7302558515</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7">
+            <v>2024</v>
+          </cell>
+          <cell r="G7">
+            <v>7000000</v>
+          </cell>
+          <cell r="H7">
+            <v>6813588.8256108928</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8">
+            <v>2025</v>
+          </cell>
+          <cell r="G8">
+            <v>8500000</v>
+          </cell>
+          <cell r="H8">
+            <v>8816233.2840826623</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="F9">
+            <v>2026</v>
+          </cell>
+          <cell r="G9">
+            <v>10375000</v>
+          </cell>
+          <cell r="H9">
+            <v>11226473.258701244</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="F10">
+            <v>2027</v>
+          </cell>
+          <cell r="G10">
+            <v>13625000</v>
+          </cell>
+          <cell r="H10">
+            <v>14060660.844756193</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="F11">
+            <v>2028</v>
+          </cell>
+          <cell r="G11">
+            <v>17125000</v>
+          </cell>
+          <cell r="H11">
+            <v>17303745.690459114</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="F12">
+            <v>2029</v>
+          </cell>
+          <cell r="G12">
+            <v>21000000</v>
+          </cell>
+          <cell r="H12">
+            <v>20900972.172630183</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="F13">
+            <v>2030</v>
+          </cell>
+          <cell r="G13">
+            <v>25500000</v>
+          </cell>
+          <cell r="H13">
+            <v>24755807.045043826</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="F14">
+            <v>2031</v>
+          </cell>
+          <cell r="G14">
+            <v>29250000</v>
+          </cell>
+          <cell r="H14">
+            <v>28737059.300076034</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="F15">
+            <v>2032</v>
+          </cell>
+          <cell r="G15">
+            <v>33375000</v>
+          </cell>
+          <cell r="H15">
+            <v>32695224.467196576</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="F16">
+            <v>2033</v>
+          </cell>
+          <cell r="G16">
+            <v>36625000</v>
+          </cell>
+          <cell r="H16">
+            <v>36484206.532142162</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="F17">
+            <v>2034</v>
+          </cell>
+          <cell r="G17">
+            <v>39750000</v>
+          </cell>
+          <cell r="H17">
+            <v>39982014.338317864</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="F18">
+            <v>2035</v>
+          </cell>
+          <cell r="G18">
+            <v>42625000</v>
+          </cell>
+          <cell r="H18">
+            <v>43104531.090709515</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="F19">
+            <v>2036</v>
+          </cell>
+          <cell r="G19">
+            <v>45250000</v>
+          </cell>
+          <cell r="H19">
+            <v>45809663.601785377</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="F20">
+            <v>2037</v>
+          </cell>
+          <cell r="G20">
+            <v>47375000</v>
+          </cell>
+          <cell r="H20">
+            <v>48092978.656097099</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="F21">
+            <v>2038</v>
+          </cell>
+          <cell r="G21">
+            <v>49375000</v>
+          </cell>
+          <cell r="H21">
+            <v>49978278.595441304</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="F22">
+            <v>2039</v>
+          </cell>
+          <cell r="G22">
+            <v>51625000</v>
+          </cell>
+          <cell r="H22">
+            <v>51506844.678802423</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="F23">
+            <v>2040</v>
+          </cell>
+          <cell r="G23">
+            <v>54125000</v>
+          </cell>
+          <cell r="H23">
+            <v>52727977.781544022</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="F24">
+            <v>2041</v>
+          </cell>
+          <cell r="H24">
+            <v>53692031.914074436</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="F25">
+            <v>2042</v>
+          </cell>
+          <cell r="H25">
+            <v>54446041.034588695</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="F26">
+            <v>2043</v>
+          </cell>
+          <cell r="H26">
+            <v>55031465.127539933</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="F27">
+            <v>2044</v>
+          </cell>
+          <cell r="H27">
+            <v>55483417.471983574</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="F28">
+            <v>2045</v>
+          </cell>
+          <cell r="H28">
+            <v>55830797.702772141</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="F29">
+            <v>2046</v>
+          </cell>
+          <cell r="H29">
+            <v>56096900.262841031</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="F30">
+            <v>2047</v>
+          </cell>
+          <cell r="H30">
+            <v>56300214.433481641</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="F31">
+            <v>2048</v>
+          </cell>
+          <cell r="H31">
+            <v>56455248.150785372</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="F32">
+            <v>2049</v>
+          </cell>
+          <cell r="H32">
+            <v>56573288.007629298</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="F33">
+            <v>2050</v>
+          </cell>
+          <cell r="H33">
+            <v>56663058.09199407</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7282,7 +8520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
@@ -7293,18 +8531,12 @@
     <col min="2" max="2" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="25">
-        <v>45306</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -7312,62 +8544,62 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>51</v>
       </c>
@@ -9481,99 +10713,131 @@
         <v>21</v>
       </c>
       <c r="B6" s="13">
+        <f>'[1]Grid Battery Storage'!B6</f>
         <v>23809.523809523806</v>
       </c>
       <c r="C6">
+        <f>TREND('[1]Grid Battery Storage'!$B$6:$C$6,'[1]Grid Battery Storage'!$B$4:$C$4,'[1]Grid Battery Storage'!C8)</f>
         <v>23809.52380952239</v>
       </c>
       <c r="D6">
+        <f>TREND('[1]Grid Battery Storage'!$B$6:$C$6,'[1]Grid Battery Storage'!$B$4:$C$4,'[1]Grid Battery Storage'!D8)</f>
         <v>50000</v>
       </c>
       <c r="E6">
+        <f>TREND('[1]Grid Battery Storage'!$B$6:$C$6,'[1]Grid Battery Storage'!$B$4:$C$4,'[1]Grid Battery Storage'!E8)</f>
         <v>76190.47619047761</v>
       </c>
       <c r="F6">
+        <f>TREND('[1]Grid Battery Storage'!$B$6:$C$6,'[1]Grid Battery Storage'!$B$4:$C$4,'[1]Grid Battery Storage'!F8)</f>
         <v>102380.95238095522</v>
       </c>
       <c r="G6">
+        <f>TREND('[1]Grid Battery Storage'!$B$6:$C$6,'[1]Grid Battery Storage'!$B$4:$C$4,'[1]Grid Battery Storage'!G8)</f>
         <v>128571.42857143283</v>
       </c>
       <c r="H6">
+        <f>TREND('[1]Grid Battery Storage'!$B$6:$C$6,'[1]Grid Battery Storage'!$B$4:$C$4,'[1]Grid Battery Storage'!H8)</f>
         <v>154761.90476190299</v>
       </c>
       <c r="I6">
+        <f>TREND('[1]Grid Battery Storage'!$C$6:$D$6,'[1]Grid Battery Storage'!$C$4:$D$4,'[1]Grid Battery Storage'!I8)</f>
         <v>238095.2380952239</v>
       </c>
       <c r="J6">
+        <f>TREND('[1]Grid Battery Storage'!$C$6:$D$6,'[1]Grid Battery Storage'!$C$4:$D$4,'[1]Grid Battery Storage'!J8)</f>
         <v>321428.57142856717</v>
       </c>
       <c r="K6">
+        <f>TREND('[1]Grid Battery Storage'!$C$6:$D$6,'[1]Grid Battery Storage'!$C$4:$D$4,'[1]Grid Battery Storage'!K8)</f>
         <v>404761.90476191044</v>
       </c>
       <c r="L6">
+        <f>TREND('[1]Grid Battery Storage'!$C$6:$D$6,'[1]Grid Battery Storage'!$C$4:$D$4,'[1]Grid Battery Storage'!L8)</f>
         <v>488095.2380952239</v>
       </c>
       <c r="M6">
+        <f>TREND('[1]Grid Battery Storage'!$C$6:$D$6,'[1]Grid Battery Storage'!$C$4:$D$4,'[1]Grid Battery Storage'!M8)</f>
         <v>571428.57142856717</v>
       </c>
       <c r="N6">
+        <f>TREND('[1]Grid Battery Storage'!$D$6:$E$6,'[1]Grid Battery Storage'!$D$4:$E$4,'[1]Grid Battery Storage'!N8)</f>
         <v>685714.28571429849</v>
       </c>
       <c r="O6">
+        <f>TREND('[1]Grid Battery Storage'!$D$6:$E$6,'[1]Grid Battery Storage'!$D$4:$E$4,'[1]Grid Battery Storage'!O8)</f>
         <v>800000</v>
       </c>
       <c r="P6">
+        <f>TREND('[1]Grid Battery Storage'!$D$6:$E$6,'[1]Grid Battery Storage'!$D$4:$E$4,'[1]Grid Battery Storage'!P8)</f>
         <v>914285.71428573132</v>
       </c>
       <c r="Q6">
+        <f>TREND('[1]Grid Battery Storage'!$D$6:$E$6,'[1]Grid Battery Storage'!$D$4:$E$4,'[1]Grid Battery Storage'!Q8)</f>
         <v>1028571.4285714328</v>
       </c>
       <c r="R6">
+        <f>TREND('[1]Grid Battery Storage'!$D$6:$E$6,'[1]Grid Battery Storage'!$D$4:$E$4,'[1]Grid Battery Storage'!R8)</f>
         <v>1142857.1428571343</v>
       </c>
       <c r="S6">
+        <f>TREND('[1]Grid Battery Storage'!$E$6:$F$6,'[1]Grid Battery Storage'!$E$4:$F$4,'[1]Grid Battery Storage'!S8)</f>
         <v>1319047.6190475821</v>
       </c>
       <c r="T6">
+        <f>TREND('[1]Grid Battery Storage'!$E$6:$F$6,'[1]Grid Battery Storage'!$E$4:$F$4,'[1]Grid Battery Storage'!T8)</f>
         <v>1495238.0952380896</v>
       </c>
       <c r="U6">
+        <f>TREND('[1]Grid Battery Storage'!$E$6:$F$6,'[1]Grid Battery Storage'!$E$4:$F$4,'[1]Grid Battery Storage'!U8)</f>
         <v>1671428.5714285374</v>
       </c>
       <c r="V6">
+        <f>TREND('[1]Grid Battery Storage'!$E$6:$F$6,'[1]Grid Battery Storage'!$E$4:$F$4,'[1]Grid Battery Storage'!V8)</f>
         <v>1847619.0476190448</v>
       </c>
       <c r="W6">
+        <f>TREND('[1]Grid Battery Storage'!$E$6:$F$6,'[1]Grid Battery Storage'!$E$4:$F$4,'[1]Grid Battery Storage'!W8)</f>
         <v>2023809.5238094926</v>
       </c>
       <c r="X6">
+        <f>TREND('[1]Grid Battery Storage'!$F$6:$G$6,'[1]Grid Battery Storage'!$F$4:$G$4,'[1]Grid Battery Storage'!X8)</f>
         <v>2261904.7619047761</v>
       </c>
       <c r="Y6">
+        <f>TREND('[1]Grid Battery Storage'!$F$6:$G$6,'[1]Grid Battery Storage'!$F$4:$G$4,'[1]Grid Battery Storage'!Y8)</f>
         <v>2500000.0000000596</v>
       </c>
       <c r="Z6">
+        <f>TREND('[1]Grid Battery Storage'!$F$6:$G$6,'[1]Grid Battery Storage'!$F$4:$G$4,'[1]Grid Battery Storage'!Z8)</f>
         <v>2738095.2380952835</v>
       </c>
       <c r="AA6">
+        <f>TREND('[1]Grid Battery Storage'!$F$6:$G$6,'[1]Grid Battery Storage'!$F$4:$G$4,'[1]Grid Battery Storage'!AA8)</f>
         <v>2976190.4761905074</v>
       </c>
       <c r="AB6">
+        <f>TREND('[1]Grid Battery Storage'!$F$6:$G$6,'[1]Grid Battery Storage'!$F$4:$G$4,'[1]Grid Battery Storage'!AB8)</f>
         <v>3214285.7142857313</v>
       </c>
       <c r="AC6">
+        <f>TREND('[1]Grid Battery Storage'!$G$6:$H$6,'[1]Grid Battery Storage'!$G$4:$H$4,'[1]Grid Battery Storage'!AC8)</f>
         <v>3440476.1904761791</v>
       </c>
       <c r="AD6">
+        <f>TREND('[1]Grid Battery Storage'!$G$6:$H$6,'[1]Grid Battery Storage'!$G$4:$H$4,'[1]Grid Battery Storage'!AD8)</f>
         <v>3666666.6666666865</v>
       </c>
       <c r="AE6">
+        <f>TREND('[1]Grid Battery Storage'!$G$6:$H$6,'[1]Grid Battery Storage'!$G$4:$H$4,'[1]Grid Battery Storage'!AE8)</f>
         <v>3892857.1428571343</v>
       </c>
       <c r="AF6">
+        <f>TREND('[1]Grid Battery Storage'!$G$6:$H$6,'[1]Grid Battery Storage'!$G$4:$H$4,'[1]Grid Battery Storage'!AF8)</f>
         <v>4119047.6190475821</v>
       </c>
       <c r="AG6">
+        <f>TREND('[1]Grid Battery Storage'!$G$6:$H$6,'[1]Grid Battery Storage'!$G$4:$H$4,'[1]Grid Battery Storage'!AG8)</f>
         <v>4345238.0952380896</v>
       </c>
     </row>
@@ -9690,39 +10954,51 @@
         <v>22</v>
       </c>
       <c r="B12">
+        <f>('[1]EV Batteries'!D10)*(1000)</f>
         <v>230000</v>
       </c>
       <c r="C12">
+        <f>('[1]EV Batteries'!E10)*(1000)</f>
         <v>490909.09090909094</v>
       </c>
       <c r="D12">
+        <f>('[1]EV Batteries'!F10)*(1000)</f>
         <v>751818.18181818188</v>
       </c>
       <c r="E12">
+        <f>('[1]EV Batteries'!G10)*(1000)</f>
         <v>1012727.2727272727</v>
       </c>
       <c r="F12">
+        <f>('[1]EV Batteries'!H10)*(1000)</f>
         <v>1273636.3636363638</v>
       </c>
       <c r="G12">
+        <f>('[1]EV Batteries'!I10)*(1000)</f>
         <v>1534545.4545454548</v>
       </c>
       <c r="H12">
+        <f>('[1]EV Batteries'!J10)*(1000)</f>
         <v>1795454.5454545456</v>
       </c>
       <c r="I12">
+        <f>('[1]EV Batteries'!K10)*(1000)</f>
         <v>2056363.6363636365</v>
       </c>
       <c r="J12">
+        <f>('[1]EV Batteries'!L10)*(1000)</f>
         <v>2317272.7272727275</v>
       </c>
       <c r="K12">
+        <f>('[1]EV Batteries'!M10)*(1000)</f>
         <v>2578181.8181818184</v>
       </c>
       <c r="L12">
+        <f>('[1]EV Batteries'!N10)*(1000)</f>
         <v>2839090.9090909096</v>
       </c>
       <c r="M12">
+        <f>('[1]EV Batteries'!O10)*(1000)</f>
         <v>3100000</v>
       </c>
     </row>
@@ -9731,33 +11007,43 @@
         <v>9</v>
       </c>
       <c r="N13">
+        <f>('[1]EV Batteries'!P10)*(1000)</f>
         <v>3424790.5975175635</v>
       </c>
       <c r="O13">
+        <f>('[1]EV Batteries'!Q10)*(1000)</f>
         <v>3746501.3723235992</v>
       </c>
       <c r="P13">
+        <f>('[1]EV Batteries'!R10)*(1000)</f>
         <v>4059905.3441759855</v>
       </c>
       <c r="Q13">
+        <f>('[1]EV Batteries'!S10)*(1000)</f>
         <v>4360313.8003408825</v>
       </c>
       <c r="R13">
+        <f>('[1]EV Batteries'!T10)*(1000)</f>
         <v>4643834.5503812227</v>
       </c>
       <c r="S13">
+        <f>('[1]EV Batteries'!U10)*(1000)</f>
         <v>4907531.6444603689</v>
       </c>
       <c r="T13">
+        <f>('[1]EV Batteries'!V10)*(1000)</f>
         <v>5149479.4152991604</v>
       </c>
       <c r="U13">
+        <f>('[1]EV Batteries'!W10)*(1000)</f>
         <v>5368721.7605243968</v>
       </c>
       <c r="V13">
+        <f>('[1]EV Batteries'!X10)*(1000)</f>
         <v>5565159.8514983393</v>
       </c>
       <c r="W13">
+        <f>('[1]EV Batteries'!Y10)*(1000)</f>
         <v>5739396.454520884</v>
       </c>
     </row>
@@ -9766,33 +11052,43 @@
         <v>10</v>
       </c>
       <c r="X14">
+        <f>('[1]EV Batteries'!Z10)*(1000)</f>
         <v>5892563.6833218094</v>
       </c>
       <c r="Y14">
+        <f>('[1]EV Batteries'!AA10)*(1000)</f>
         <v>6026155.5256387582</v>
       </c>
       <c r="Z14">
+        <f>('[1]EV Batteries'!AB10)*(1000)</f>
         <v>6141879.3779363325</v>
       </c>
       <c r="AA14">
+        <f>('[1]EV Batteries'!AC10)*(1000)</f>
         <v>6241534.0085637206</v>
       </c>
       <c r="AB14">
+        <f>('[1]EV Batteries'!AD10)*(1000)</f>
         <v>6326915.950859325</v>
       </c>
       <c r="AC14">
+        <f>('[1]EV Batteries'!AE10)*(1000)</f>
         <v>6399752.6614421792</v>
       </c>
       <c r="AD14">
+        <f>('[1]EV Batteries'!AF10)*(1000)</f>
         <v>6461658.7298551602</v>
       </c>
       <c r="AE14">
+        <f>('[1]EV Batteries'!AG10)*(1000)</f>
         <v>6514110.623151809</v>
       </c>
       <c r="AF14">
+        <f>('[1]EV Batteries'!AH10)*(1000)</f>
         <v>6558435.4749555839</v>
       </c>
       <c r="AG14">
+        <f>('[1]EV Batteries'!AI10)*(1000)</f>
         <v>6595809.921999068</v>
       </c>
     </row>

--- a/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
+++ b/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\endo-learn\BGBSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\state-eps-data-repository\NV\endo-learn\BGBSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F003864B-0DEB-4A0F-AD2C-48D451586C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A53D8B7E-FF8D-4E00-ADC6-CBF8A881DB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6630" yWindow="2220" windowWidth="15660" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,6 @@
     <sheet name="SYGBSC" sheetId="11" r:id="rId6"/>
     <sheet name="BGBSC" sheetId="6" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="ec_50">'EV Sigmoid Fitting'!$B$4</definedName>
     <definedName name="max">'EV Sigmoid Fitting'!$B$3</definedName>
@@ -60,7 +56,7 @@
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -81,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>BGBSC BAU Global Battery Storage Capacity</t>
   </si>
@@ -309,6 +305,9 @@
   <si>
     <t>data from the BNEF EVO.</t>
   </si>
+  <si>
+    <t>Nevada</t>
+  </si>
 </sst>
 </file>
 
@@ -473,7 +472,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -521,6 +520,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -665,112 +665,106 @@
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
-              <c:f>'[1]EV Batteries'!$B$9:$Y$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2040</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="24"/>
+              <c:pt idx="0">
+                <c:v>2017</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2018</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2020</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2021</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2022</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2023</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2024</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2025</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2026</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2027</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2028</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>2029</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2030</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2031</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2032</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2033</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2034</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2035</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2036</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2037</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2038</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2039</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2040</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>'[1]EV Batteries'!$B$13:$Y$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1210000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10600000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>40000000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>55000000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>72000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="24"/>
+              <c:pt idx="0">
+                <c:v>1210000</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>10600000</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>21000000</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>40000000</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>55000000</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>72000000</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
@@ -1020,15 +1014,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[2]Sheet1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>y</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1053,184 +1039,178 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[2]Sheet1!$F$2:$F$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="34"/>
+              <c:pt idx="0">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2020</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2021</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2022</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2023</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2024</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2025</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2026</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2027</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2028</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2029</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2030</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>2031</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2032</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2033</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2034</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2035</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2036</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2037</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2038</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2039</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2040</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2041</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2042</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>2043</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>2044</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2045</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>2046</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>2047</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>2048</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>2049</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>2050</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[2]Sheet1!$G$2:$G$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>2375000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1750000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2500000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3875000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5375000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8500000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10375000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13625000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17125000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25500000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29250000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>33375000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>36625000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>39750000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42625000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45250000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>47375000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>49375000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>51625000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>54125000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="34"/>
+              <c:pt idx="0">
+                <c:v>2375000</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1750000</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2500000</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3875000</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5375000</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7000000</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8500000</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>10375000</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>13625000</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>17125000</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>21000000</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>25500000</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>29250000</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>33375000</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>36625000</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>39750000</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>42625000</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>45250000</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>47375000</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>49375000</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>51625000</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>54125000</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -1243,15 +1223,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[2]Sheet1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ycalc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>ycalc</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1276,214 +1248,208 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[2]Sheet1!$F$2:$F$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="34"/>
+              <c:pt idx="0">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2020</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2021</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2022</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2023</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2024</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2025</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2026</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2027</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2028</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2029</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2030</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>2031</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2032</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2033</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2034</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2035</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2036</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2037</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2038</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2039</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2040</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2041</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2042</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>2043</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>2044</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2045</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>2046</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>2047</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>2048</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>2049</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>2050</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[2]Sheet1!$H$2:$H$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>1389132.164056371</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2021843.2718926258</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2835096.85528416</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3872186.6405841364</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5181480.7302558515</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6813588.8256108928</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8816233.2840826623</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11226473.258701244</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14060660.844756193</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17303745.690459114</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20900972.172630183</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24755807.045043826</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28737059.300076034</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>32695224.467196576</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>36484206.532142162</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>39982014.338317864</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43104531.090709515</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45809663.601785377</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>48092978.656097099</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>49978278.595441304</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>51506844.678802423</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>52727977.781544022</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>53692031.914074436</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>54446041.034588695</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>55031465.127539933</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>55483417.471983574</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>55830797.702772141</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>56096900.262841031</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>56300214.433481641</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>56455248.150785372</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>56573288.007629298</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>56663058.09199407</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="34"/>
+              <c:pt idx="0">
+                <c:v>1389132.164056371</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2021843.2718926258</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2835096.85528416</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3872186.6405841364</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5181480.7302558515</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6813588.8256108928</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8816233.2840826623</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>11226473.258701244</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>14060660.844756193</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>17303745.690459114</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>20900972.172630183</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>24755807.045043826</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>28737059.300076034</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>32695224.467196576</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>36484206.532142162</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>39982014.338317864</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>43104531.090709515</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>45809663.601785377</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>48092978.656097099</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>49978278.595441304</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>51506844.678802423</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>52727977.781544022</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>53692031.914074436</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>54446041.034588695</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>55031465.127539933</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>55483417.471983574</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>55830797.702772141</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>56096900.262841031</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>56300214.433481641</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>56455248.150785372</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>56573288.007629298</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>56663058.09199407</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -1764,15 +1730,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[2]Sheet1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>y</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1797,184 +1755,178 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[2]Sheet1!$F$2:$F$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="34"/>
+              <c:pt idx="0">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2020</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2021</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2022</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2023</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2024</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2025</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2026</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2027</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2028</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2029</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2030</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>2031</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2032</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2033</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2034</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2035</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2036</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2037</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2038</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2039</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2040</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2041</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2042</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>2043</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>2044</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2045</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>2046</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>2047</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>2048</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>2049</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>2050</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[2]Sheet1!$G$2:$G$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>2375000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1750000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2500000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3875000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5375000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8500000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10375000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13625000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17125000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25500000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29250000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>33375000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>36625000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>39750000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42625000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45250000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>47375000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>49375000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>51625000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>54125000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="34"/>
+              <c:pt idx="0">
+                <c:v>2375000</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1750000</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2500000</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3875000</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5375000</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7000000</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8500000</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>10375000</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>13625000</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>17125000</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>21000000</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>25500000</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>29250000</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>33375000</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>36625000</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>39750000</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>42625000</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>45250000</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>47375000</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>49375000</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>51625000</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>54125000</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -1987,15 +1939,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[2]Sheet1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ycalc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>ycalc</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2020,214 +1964,208 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[2]Sheet1!$F$2:$F$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="34"/>
+              <c:pt idx="0">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2020</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2021</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2022</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2023</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2024</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2025</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2026</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2027</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2028</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2029</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2030</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>2031</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2032</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2033</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2034</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2035</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2036</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2037</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2038</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2039</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2040</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2041</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2042</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>2043</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>2044</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2045</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>2046</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>2047</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>2048</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>2049</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>2050</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[2]Sheet1!$H$2:$H$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>1389132.164056371</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2021843.2718926258</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2835096.85528416</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3872186.6405841364</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5181480.7302558515</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6813588.8256108928</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8816233.2840826623</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11226473.258701244</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14060660.844756193</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17303745.690459114</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20900972.172630183</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24755807.045043826</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28737059.300076034</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>32695224.467196576</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>36484206.532142162</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>39982014.338317864</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43104531.090709515</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45809663.601785377</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>48092978.656097099</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>49978278.595441304</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>51506844.678802423</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>52727977.781544022</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>53692031.914074436</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>54446041.034588695</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>55031465.127539933</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>55483417.471983574</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>55830797.702772141</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>56096900.262841031</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>56300214.433481641</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>56455248.150785372</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>56573288.007629298</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>56663058.09199407</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="34"/>
+              <c:pt idx="0">
+                <c:v>1389132.164056371</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2021843.2718926258</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2835096.85528416</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3872186.6405841364</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5181480.7302558515</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6813588.8256108928</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8816233.2840826623</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>11226473.258701244</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>14060660.844756193</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>17303745.690459114</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>20900972.172630183</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>24755807.045043826</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>28737059.300076034</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>32695224.467196576</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>36484206.532142162</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>39982014.338317864</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>43104531.090709515</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>45809663.601785377</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>48092978.656097099</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>49978278.595441304</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>51506844.678802423</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>52727977.781544022</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>53692031.914074436</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>54446041.034588695</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>55031465.127539933</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>55483417.471983574</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>55830797.702772141</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>56096900.262841031</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>56300214.433481641</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>56455248.150785372</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>56573288.007629298</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>56663058.09199407</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -2538,15 +2476,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[1]Calculations!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EV battery new sales (MWh)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>EV battery new sales (MWh)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2573,154 +2503,148 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]Calculations!$B$11:$AG$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="32"/>
+              <c:pt idx="0">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2020</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2021</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2022</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2023</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2024</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2025</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2026</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2027</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2028</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2029</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2030</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>2031</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2032</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2033</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2034</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2035</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2036</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2037</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2038</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2039</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2040</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2041</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2042</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>2043</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>2044</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2045</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>2046</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>2047</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>2048</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>2049</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>2050</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]Calculations!$B$12:$AG$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>230000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>490909.09090909094</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>751818.18181818188</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1012727.2727272727</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1273636.3636363638</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1534545.4545454548</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1795454.5454545456</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2056363.6363636365</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2317272.7272727275</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2578181.8181818184</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2839090.9090909096</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="32"/>
+              <c:pt idx="0">
+                <c:v>230000</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>490909.09090909094</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>751818.18181818188</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>1012727.2727272727</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1273636.3636363638</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>1534545.4545454548</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>1795454.5454545456</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2056363.6363636365</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2317272.7272727275</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2578181.8181818184</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2839090.9090909096</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>3100000</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
@@ -2733,15 +2657,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[1]Calculations!$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EV battery new sales, extrapolated 2031-2040 (GWh)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>EV battery new sales, extrapolated 2031-2040 (GWh)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2768,148 +2684,142 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]Calculations!$B$11:$AG$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="32"/>
+              <c:pt idx="0">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2020</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2021</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2022</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2023</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2024</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2025</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2026</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2027</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2028</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2029</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2030</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>2031</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2032</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2033</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2034</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2035</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2036</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2037</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2038</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2039</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2040</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2041</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2042</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>2043</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>2044</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2045</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>2046</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>2047</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>2048</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>2049</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>2050</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]Calculations!$B$13:$AK$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="12">
-                  <c:v>3424790.5975175635</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3746501.3723235992</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4059905.3441759855</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4360313.8003408825</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4643834.5503812227</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4907531.6444603689</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5149479.4152991604</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5368721.7605243968</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5565159.8514983393</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5739396.454520884</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="36"/>
+              <c:pt idx="12">
+                <c:v>3424790.5975175635</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>3746501.3723235992</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>4059905.3441759855</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>4360313.8003408825</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>4643834.5503812227</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>4907531.6444603689</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>5149479.4152991604</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>5368721.7605243968</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>5565159.8514983393</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>5739396.454520884</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
@@ -2922,15 +2832,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[1]Calculations!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EV battery new sales, extrapolated 2041-2050 (GWh)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>EV battery new sales, extrapolated 2041-2050 (GWh)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2957,148 +2859,142 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]Calculations!$B$11:$AG$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="32"/>
+              <c:pt idx="0">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2020</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2021</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2022</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2023</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2024</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2025</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2026</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2027</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2028</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2029</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2030</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>2031</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2032</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2033</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2034</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2035</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2036</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2037</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2038</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2039</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2040</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2041</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2042</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>2043</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>2044</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2045</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>2046</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>2047</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>2048</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>2049</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>2050</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]Calculations!$B$14:$AK$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="22">
-                  <c:v>5892563.6833218094</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6026155.5256387582</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6141879.3779363325</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6241534.0085637206</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6326915.950859325</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6399752.6614421792</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6461658.7298551602</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6514110.623151809</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6558435.4749555839</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6595809.921999068</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="36"/>
+              <c:pt idx="22">
+                <c:v>5892563.6833218094</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>6026155.5256387582</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>6141879.3779363325</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>6241534.0085637206</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>6326915.950859325</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>6399752.6614421792</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>6461658.7298551602</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>6514110.623151809</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>6558435.4749555839</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>6595809.921999068</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
@@ -3374,15 +3270,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[1]Calculations!$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EV battery cap, cumulative (MWh)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>EV battery cap, cumulative (MWh)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3409,214 +3297,208 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]Calculations!$C$16:$AH$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="32"/>
+              <c:pt idx="0">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2020</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2021</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2022</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2023</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2024</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2025</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2026</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2027</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2028</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2029</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2030</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>2031</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2032</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2033</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2034</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2035</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2036</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2037</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2038</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2039</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2040</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2041</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2042</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>2043</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>2044</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2045</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>2046</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>2047</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>2048</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>2049</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>2050</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]Calculations!$C$17:$AH$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>2730000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3220909.0909090908</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3972727.2727272725</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4985454.5454545449</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6259090.9090909082</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7793636.3636363633</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9589090.9090909082</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11645454.545454545</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13962727.272727273</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16540909.090909092</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19380000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22480000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25904790.597517565</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29651291.969841164</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>33711197.314017147</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>38071511.11435803</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42715345.664739251</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>47622877.309199616</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>52772356.724498779</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>58141078.485023178</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>63706238.336521521</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>69445634.791042402</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>75338198.474364206</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>81364354.000002965</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>87506233.377939299</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>93747767.386503026</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>100074683.33736235</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>106474435.99880452</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>112936094.72865969</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>119450205.3518115</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>126008640.82676709</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>132604450.74876615</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="32"/>
+              <c:pt idx="0">
+                <c:v>2730000</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3220909.0909090908</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3972727.2727272725</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4985454.5454545449</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6259090.9090909082</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7793636.3636363633</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>9589090.9090909082</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>11645454.545454545</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>13962727.272727273</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>16540909.090909092</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>19380000</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>22480000</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>25904790.597517565</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>29651291.969841164</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>33711197.314017147</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>38071511.11435803</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>42715345.664739251</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>47622877.309199616</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>52772356.724498779</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>58141078.485023178</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>63706238.336521521</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>69445634.791042402</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>75338198.474364206</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>81364354.000002965</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>87506233.377939299</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>93747767.386503026</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>100074683.33736235</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>106474435.99880452</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>112936094.72865969</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>119450205.3518115</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>126008640.82676709</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>132604450.74876615</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -7137,1126 +7019,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="Grid Battery Storage"/>
-      <sheetName val="EV Sigmoid Fitting"/>
-      <sheetName val="EV Batteries"/>
-      <sheetName val="Calculations"/>
-      <sheetName val="BGBSC BNEF 2022 historical data"/>
-      <sheetName val="BGBSC BNEF 2023 projection"/>
-      <sheetName val="BGBSC DOE 2022 historical data"/>
-      <sheetName val="BGBSC BNEF 2022 historic 18.9%"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="4">
-          <cell r="B4">
-            <v>2020</v>
-          </cell>
-          <cell r="C4">
-            <v>2025</v>
-          </cell>
-          <cell r="D4">
-            <v>2030</v>
-          </cell>
-          <cell r="E4">
-            <v>2035</v>
-          </cell>
-          <cell r="F4">
-            <v>2040</v>
-          </cell>
-          <cell r="G4">
-            <v>2045</v>
-          </cell>
-          <cell r="H4">
-            <v>2050</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>23809.523809523806</v>
-          </cell>
-          <cell r="C6">
-            <v>154761.90476190476</v>
-          </cell>
-          <cell r="D6">
-            <v>571428.57142857148</v>
-          </cell>
-          <cell r="E6">
-            <v>1142857.142857143</v>
-          </cell>
-          <cell r="F6">
-            <v>2023809.5238095236</v>
-          </cell>
-          <cell r="G6">
-            <v>3214285.7142857141</v>
-          </cell>
-          <cell r="H6">
-            <v>4345238.0952380942</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>2020</v>
-          </cell>
-          <cell r="D8">
-            <v>2021</v>
-          </cell>
-          <cell r="E8">
-            <v>2022</v>
-          </cell>
-          <cell r="F8">
-            <v>2023</v>
-          </cell>
-          <cell r="G8">
-            <v>2024</v>
-          </cell>
-          <cell r="H8">
-            <v>2025</v>
-          </cell>
-          <cell r="I8">
-            <v>2026</v>
-          </cell>
-          <cell r="J8">
-            <v>2027</v>
-          </cell>
-          <cell r="K8">
-            <v>2028</v>
-          </cell>
-          <cell r="L8">
-            <v>2029</v>
-          </cell>
-          <cell r="M8">
-            <v>2030</v>
-          </cell>
-          <cell r="N8">
-            <v>2031</v>
-          </cell>
-          <cell r="O8">
-            <v>2032</v>
-          </cell>
-          <cell r="P8">
-            <v>2033</v>
-          </cell>
-          <cell r="Q8">
-            <v>2034</v>
-          </cell>
-          <cell r="R8">
-            <v>2035</v>
-          </cell>
-          <cell r="S8">
-            <v>2036</v>
-          </cell>
-          <cell r="T8">
-            <v>2037</v>
-          </cell>
-          <cell r="U8">
-            <v>2038</v>
-          </cell>
-          <cell r="V8">
-            <v>2039</v>
-          </cell>
-          <cell r="W8">
-            <v>2040</v>
-          </cell>
-          <cell r="X8">
-            <v>2041</v>
-          </cell>
-          <cell r="Y8">
-            <v>2042</v>
-          </cell>
-          <cell r="Z8">
-            <v>2043</v>
-          </cell>
-          <cell r="AA8">
-            <v>2044</v>
-          </cell>
-          <cell r="AB8">
-            <v>2045</v>
-          </cell>
-          <cell r="AC8">
-            <v>2046</v>
-          </cell>
-          <cell r="AD8">
-            <v>2047</v>
-          </cell>
-          <cell r="AE8">
-            <v>2048</v>
-          </cell>
-          <cell r="AF8">
-            <v>2049</v>
-          </cell>
-          <cell r="AG8">
-            <v>2050</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="9">
-          <cell r="B9">
-            <v>2017</v>
-          </cell>
-          <cell r="C9">
-            <v>2018</v>
-          </cell>
-          <cell r="D9">
-            <v>2019</v>
-          </cell>
-          <cell r="E9">
-            <v>2020</v>
-          </cell>
-          <cell r="F9">
-            <v>2021</v>
-          </cell>
-          <cell r="G9">
-            <v>2022</v>
-          </cell>
-          <cell r="H9">
-            <v>2023</v>
-          </cell>
-          <cell r="I9">
-            <v>2024</v>
-          </cell>
-          <cell r="J9">
-            <v>2025</v>
-          </cell>
-          <cell r="K9">
-            <v>2026</v>
-          </cell>
-          <cell r="L9">
-            <v>2027</v>
-          </cell>
-          <cell r="M9">
-            <v>2028</v>
-          </cell>
-          <cell r="N9">
-            <v>2029</v>
-          </cell>
-          <cell r="O9">
-            <v>2030</v>
-          </cell>
-          <cell r="P9">
-            <v>2031</v>
-          </cell>
-          <cell r="Q9">
-            <v>2032</v>
-          </cell>
-          <cell r="R9">
-            <v>2033</v>
-          </cell>
-          <cell r="S9">
-            <v>2034</v>
-          </cell>
-          <cell r="T9">
-            <v>2035</v>
-          </cell>
-          <cell r="U9">
-            <v>2036</v>
-          </cell>
-          <cell r="V9">
-            <v>2037</v>
-          </cell>
-          <cell r="W9">
-            <v>2038</v>
-          </cell>
-          <cell r="X9">
-            <v>2039</v>
-          </cell>
-          <cell r="Y9">
-            <v>2040</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>230</v>
-          </cell>
-          <cell r="E10">
-            <v>490.90909090909093</v>
-          </cell>
-          <cell r="F10">
-            <v>751.81818181818187</v>
-          </cell>
-          <cell r="G10">
-            <v>1012.7272727272727</v>
-          </cell>
-          <cell r="H10">
-            <v>1273.6363636363637</v>
-          </cell>
-          <cell r="I10">
-            <v>1534.5454545454547</v>
-          </cell>
-          <cell r="J10">
-            <v>1795.4545454545457</v>
-          </cell>
-          <cell r="K10">
-            <v>2056.3636363636365</v>
-          </cell>
-          <cell r="L10">
-            <v>2317.2727272727275</v>
-          </cell>
-          <cell r="M10">
-            <v>2578.1818181818185</v>
-          </cell>
-          <cell r="N10">
-            <v>2839.0909090909095</v>
-          </cell>
-          <cell r="O10">
-            <v>3100</v>
-          </cell>
-          <cell r="P10">
-            <v>3424.7905975175636</v>
-          </cell>
-          <cell r="Q10">
-            <v>3746.5013723235993</v>
-          </cell>
-          <cell r="R10">
-            <v>4059.9053441759856</v>
-          </cell>
-          <cell r="S10">
-            <v>4360.3138003408822</v>
-          </cell>
-          <cell r="T10">
-            <v>4643.8345503812225</v>
-          </cell>
-          <cell r="U10">
-            <v>4907.5316444603686</v>
-          </cell>
-          <cell r="V10">
-            <v>5149.4794152991608</v>
-          </cell>
-          <cell r="W10">
-            <v>5368.7217605243968</v>
-          </cell>
-          <cell r="X10">
-            <v>5565.1598514983398</v>
-          </cell>
-          <cell r="Y10">
-            <v>5739.3964545208837</v>
-          </cell>
-          <cell r="Z10">
-            <v>5892.5636833218095</v>
-          </cell>
-          <cell r="AA10">
-            <v>6026.1555256387583</v>
-          </cell>
-          <cell r="AB10">
-            <v>6141.8793779363323</v>
-          </cell>
-          <cell r="AC10">
-            <v>6241.5340085637208</v>
-          </cell>
-          <cell r="AD10">
-            <v>6326.9159508593248</v>
-          </cell>
-          <cell r="AE10">
-            <v>6399.7526614421795</v>
-          </cell>
-          <cell r="AF10">
-            <v>6461.6587298551603</v>
-          </cell>
-          <cell r="AG10">
-            <v>6514.1106231518088</v>
-          </cell>
-          <cell r="AH10">
-            <v>6558.4354749555841</v>
-          </cell>
-          <cell r="AI10">
-            <v>6595.8099219990681</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>1210000</v>
-          </cell>
-          <cell r="G13">
-            <v>10600000</v>
-          </cell>
-          <cell r="J13">
-            <v>21000000</v>
-          </cell>
-          <cell r="O13">
-            <v>40000000</v>
-          </cell>
-          <cell r="T13">
-            <v>55000000</v>
-          </cell>
-          <cell r="Y13">
-            <v>72000000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="11">
-          <cell r="B11">
-            <v>2019</v>
-          </cell>
-          <cell r="C11">
-            <v>2020</v>
-          </cell>
-          <cell r="D11">
-            <v>2021</v>
-          </cell>
-          <cell r="E11">
-            <v>2022</v>
-          </cell>
-          <cell r="F11">
-            <v>2023</v>
-          </cell>
-          <cell r="G11">
-            <v>2024</v>
-          </cell>
-          <cell r="H11">
-            <v>2025</v>
-          </cell>
-          <cell r="I11">
-            <v>2026</v>
-          </cell>
-          <cell r="J11">
-            <v>2027</v>
-          </cell>
-          <cell r="K11">
-            <v>2028</v>
-          </cell>
-          <cell r="L11">
-            <v>2029</v>
-          </cell>
-          <cell r="M11">
-            <v>2030</v>
-          </cell>
-          <cell r="N11">
-            <v>2031</v>
-          </cell>
-          <cell r="O11">
-            <v>2032</v>
-          </cell>
-          <cell r="P11">
-            <v>2033</v>
-          </cell>
-          <cell r="Q11">
-            <v>2034</v>
-          </cell>
-          <cell r="R11">
-            <v>2035</v>
-          </cell>
-          <cell r="S11">
-            <v>2036</v>
-          </cell>
-          <cell r="T11">
-            <v>2037</v>
-          </cell>
-          <cell r="U11">
-            <v>2038</v>
-          </cell>
-          <cell r="V11">
-            <v>2039</v>
-          </cell>
-          <cell r="W11">
-            <v>2040</v>
-          </cell>
-          <cell r="X11">
-            <v>2041</v>
-          </cell>
-          <cell r="Y11">
-            <v>2042</v>
-          </cell>
-          <cell r="Z11">
-            <v>2043</v>
-          </cell>
-          <cell r="AA11">
-            <v>2044</v>
-          </cell>
-          <cell r="AB11">
-            <v>2045</v>
-          </cell>
-          <cell r="AC11">
-            <v>2046</v>
-          </cell>
-          <cell r="AD11">
-            <v>2047</v>
-          </cell>
-          <cell r="AE11">
-            <v>2048</v>
-          </cell>
-          <cell r="AF11">
-            <v>2049</v>
-          </cell>
-          <cell r="AG11">
-            <v>2050</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>EV battery new sales (MWh)</v>
-          </cell>
-          <cell r="B12">
-            <v>230000</v>
-          </cell>
-          <cell r="C12">
-            <v>490909.09090909094</v>
-          </cell>
-          <cell r="D12">
-            <v>751818.18181818188</v>
-          </cell>
-          <cell r="E12">
-            <v>1012727.2727272727</v>
-          </cell>
-          <cell r="F12">
-            <v>1273636.3636363638</v>
-          </cell>
-          <cell r="G12">
-            <v>1534545.4545454548</v>
-          </cell>
-          <cell r="H12">
-            <v>1795454.5454545456</v>
-          </cell>
-          <cell r="I12">
-            <v>2056363.6363636365</v>
-          </cell>
-          <cell r="J12">
-            <v>2317272.7272727275</v>
-          </cell>
-          <cell r="K12">
-            <v>2578181.8181818184</v>
-          </cell>
-          <cell r="L12">
-            <v>2839090.9090909096</v>
-          </cell>
-          <cell r="M12">
-            <v>3100000</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>EV battery new sales, extrapolated 2031-2040 (GWh)</v>
-          </cell>
-          <cell r="N13">
-            <v>3424790.5975175635</v>
-          </cell>
-          <cell r="O13">
-            <v>3746501.3723235992</v>
-          </cell>
-          <cell r="P13">
-            <v>4059905.3441759855</v>
-          </cell>
-          <cell r="Q13">
-            <v>4360313.8003408825</v>
-          </cell>
-          <cell r="R13">
-            <v>4643834.5503812227</v>
-          </cell>
-          <cell r="S13">
-            <v>4907531.6444603689</v>
-          </cell>
-          <cell r="T13">
-            <v>5149479.4152991604</v>
-          </cell>
-          <cell r="U13">
-            <v>5368721.7605243968</v>
-          </cell>
-          <cell r="V13">
-            <v>5565159.8514983393</v>
-          </cell>
-          <cell r="W13">
-            <v>5739396.454520884</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>EV battery new sales, extrapolated 2041-2050 (GWh)</v>
-          </cell>
-          <cell r="X14">
-            <v>5892563.6833218094</v>
-          </cell>
-          <cell r="Y14">
-            <v>6026155.5256387582</v>
-          </cell>
-          <cell r="Z14">
-            <v>6141879.3779363325</v>
-          </cell>
-          <cell r="AA14">
-            <v>6241534.0085637206</v>
-          </cell>
-          <cell r="AB14">
-            <v>6326915.950859325</v>
-          </cell>
-          <cell r="AC14">
-            <v>6399752.6614421792</v>
-          </cell>
-          <cell r="AD14">
-            <v>6461658.7298551602</v>
-          </cell>
-          <cell r="AE14">
-            <v>6514110.623151809</v>
-          </cell>
-          <cell r="AF14">
-            <v>6558435.4749555839</v>
-          </cell>
-          <cell r="AG14">
-            <v>6595809.921999068</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>2019</v>
-          </cell>
-          <cell r="D16">
-            <v>2020</v>
-          </cell>
-          <cell r="E16">
-            <v>2021</v>
-          </cell>
-          <cell r="F16">
-            <v>2022</v>
-          </cell>
-          <cell r="G16">
-            <v>2023</v>
-          </cell>
-          <cell r="H16">
-            <v>2024</v>
-          </cell>
-          <cell r="I16">
-            <v>2025</v>
-          </cell>
-          <cell r="J16">
-            <v>2026</v>
-          </cell>
-          <cell r="K16">
-            <v>2027</v>
-          </cell>
-          <cell r="L16">
-            <v>2028</v>
-          </cell>
-          <cell r="M16">
-            <v>2029</v>
-          </cell>
-          <cell r="N16">
-            <v>2030</v>
-          </cell>
-          <cell r="O16">
-            <v>2031</v>
-          </cell>
-          <cell r="P16">
-            <v>2032</v>
-          </cell>
-          <cell r="Q16">
-            <v>2033</v>
-          </cell>
-          <cell r="R16">
-            <v>2034</v>
-          </cell>
-          <cell r="S16">
-            <v>2035</v>
-          </cell>
-          <cell r="T16">
-            <v>2036</v>
-          </cell>
-          <cell r="U16">
-            <v>2037</v>
-          </cell>
-          <cell r="V16">
-            <v>2038</v>
-          </cell>
-          <cell r="W16">
-            <v>2039</v>
-          </cell>
-          <cell r="X16">
-            <v>2040</v>
-          </cell>
-          <cell r="Y16">
-            <v>2041</v>
-          </cell>
-          <cell r="Z16">
-            <v>2042</v>
-          </cell>
-          <cell r="AA16">
-            <v>2043</v>
-          </cell>
-          <cell r="AB16">
-            <v>2044</v>
-          </cell>
-          <cell r="AC16">
-            <v>2045</v>
-          </cell>
-          <cell r="AD16">
-            <v>2046</v>
-          </cell>
-          <cell r="AE16">
-            <v>2047</v>
-          </cell>
-          <cell r="AF16">
-            <v>2048</v>
-          </cell>
-          <cell r="AG16">
-            <v>2049</v>
-          </cell>
-          <cell r="AH16">
-            <v>2050</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>EV battery cap, cumulative (MWh)</v>
-          </cell>
-          <cell r="C17">
-            <v>2730000</v>
-          </cell>
-          <cell r="D17">
-            <v>3220909.0909090908</v>
-          </cell>
-          <cell r="E17">
-            <v>3972727.2727272725</v>
-          </cell>
-          <cell r="F17">
-            <v>4985454.5454545449</v>
-          </cell>
-          <cell r="G17">
-            <v>6259090.9090909082</v>
-          </cell>
-          <cell r="H17">
-            <v>7793636.3636363633</v>
-          </cell>
-          <cell r="I17">
-            <v>9589090.9090909082</v>
-          </cell>
-          <cell r="J17">
-            <v>11645454.545454545</v>
-          </cell>
-          <cell r="K17">
-            <v>13962727.272727273</v>
-          </cell>
-          <cell r="L17">
-            <v>16540909.090909092</v>
-          </cell>
-          <cell r="M17">
-            <v>19380000</v>
-          </cell>
-          <cell r="N17">
-            <v>22480000</v>
-          </cell>
-          <cell r="O17">
-            <v>25904790.597517565</v>
-          </cell>
-          <cell r="P17">
-            <v>29651291.969841164</v>
-          </cell>
-          <cell r="Q17">
-            <v>33711197.314017147</v>
-          </cell>
-          <cell r="R17">
-            <v>38071511.11435803</v>
-          </cell>
-          <cell r="S17">
-            <v>42715345.664739251</v>
-          </cell>
-          <cell r="T17">
-            <v>47622877.309199616</v>
-          </cell>
-          <cell r="U17">
-            <v>52772356.724498779</v>
-          </cell>
-          <cell r="V17">
-            <v>58141078.485023178</v>
-          </cell>
-          <cell r="W17">
-            <v>63706238.336521521</v>
-          </cell>
-          <cell r="X17">
-            <v>69445634.791042402</v>
-          </cell>
-          <cell r="Y17">
-            <v>75338198.474364206</v>
-          </cell>
-          <cell r="Z17">
-            <v>81364354.000002965</v>
-          </cell>
-          <cell r="AA17">
-            <v>87506233.377939299</v>
-          </cell>
-          <cell r="AB17">
-            <v>93747767.386503026</v>
-          </cell>
-          <cell r="AC17">
-            <v>100074683.33736235</v>
-          </cell>
-          <cell r="AD17">
-            <v>106474435.99880452</v>
-          </cell>
-          <cell r="AE17">
-            <v>112936094.72865969</v>
-          </cell>
-          <cell r="AF17">
-            <v>119450205.3518115</v>
-          </cell>
-          <cell r="AG17">
-            <v>126008640.82676709</v>
-          </cell>
-          <cell r="AH17">
-            <v>132604450.74876615</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="G1" t="str">
-            <v>y</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>ycalc</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="F2">
-            <v>2019</v>
-          </cell>
-          <cell r="G2">
-            <v>2375000</v>
-          </cell>
-          <cell r="H2">
-            <v>1389132.164056371</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>2020</v>
-          </cell>
-          <cell r="G3">
-            <v>1750000</v>
-          </cell>
-          <cell r="H3">
-            <v>2021843.2718926258</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>2021</v>
-          </cell>
-          <cell r="G4">
-            <v>2500000</v>
-          </cell>
-          <cell r="H4">
-            <v>2835096.85528416</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>2022</v>
-          </cell>
-          <cell r="G5">
-            <v>3875000</v>
-          </cell>
-          <cell r="H5">
-            <v>3872186.6405841364</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>2023</v>
-          </cell>
-          <cell r="G6">
-            <v>5375000</v>
-          </cell>
-          <cell r="H6">
-            <v>5181480.7302558515</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>2024</v>
-          </cell>
-          <cell r="G7">
-            <v>7000000</v>
-          </cell>
-          <cell r="H7">
-            <v>6813588.8256108928</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>2025</v>
-          </cell>
-          <cell r="G8">
-            <v>8500000</v>
-          </cell>
-          <cell r="H8">
-            <v>8816233.2840826623</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>2026</v>
-          </cell>
-          <cell r="G9">
-            <v>10375000</v>
-          </cell>
-          <cell r="H9">
-            <v>11226473.258701244</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>2027</v>
-          </cell>
-          <cell r="G10">
-            <v>13625000</v>
-          </cell>
-          <cell r="H10">
-            <v>14060660.844756193</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>2028</v>
-          </cell>
-          <cell r="G11">
-            <v>17125000</v>
-          </cell>
-          <cell r="H11">
-            <v>17303745.690459114</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>2029</v>
-          </cell>
-          <cell r="G12">
-            <v>21000000</v>
-          </cell>
-          <cell r="H12">
-            <v>20900972.172630183</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>2030</v>
-          </cell>
-          <cell r="G13">
-            <v>25500000</v>
-          </cell>
-          <cell r="H13">
-            <v>24755807.045043826</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>2031</v>
-          </cell>
-          <cell r="G14">
-            <v>29250000</v>
-          </cell>
-          <cell r="H14">
-            <v>28737059.300076034</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>2032</v>
-          </cell>
-          <cell r="G15">
-            <v>33375000</v>
-          </cell>
-          <cell r="H15">
-            <v>32695224.467196576</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>2033</v>
-          </cell>
-          <cell r="G16">
-            <v>36625000</v>
-          </cell>
-          <cell r="H16">
-            <v>36484206.532142162</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>2034</v>
-          </cell>
-          <cell r="G17">
-            <v>39750000</v>
-          </cell>
-          <cell r="H17">
-            <v>39982014.338317864</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>2035</v>
-          </cell>
-          <cell r="G18">
-            <v>42625000</v>
-          </cell>
-          <cell r="H18">
-            <v>43104531.090709515</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>2036</v>
-          </cell>
-          <cell r="G19">
-            <v>45250000</v>
-          </cell>
-          <cell r="H19">
-            <v>45809663.601785377</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>2037</v>
-          </cell>
-          <cell r="G20">
-            <v>47375000</v>
-          </cell>
-          <cell r="H20">
-            <v>48092978.656097099</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>2038</v>
-          </cell>
-          <cell r="G21">
-            <v>49375000</v>
-          </cell>
-          <cell r="H21">
-            <v>49978278.595441304</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>2039</v>
-          </cell>
-          <cell r="G22">
-            <v>51625000</v>
-          </cell>
-          <cell r="H22">
-            <v>51506844.678802423</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>2040</v>
-          </cell>
-          <cell r="G23">
-            <v>54125000</v>
-          </cell>
-          <cell r="H23">
-            <v>52727977.781544022</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>2041</v>
-          </cell>
-          <cell r="H24">
-            <v>53692031.914074436</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>2042</v>
-          </cell>
-          <cell r="H25">
-            <v>54446041.034588695</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>2043</v>
-          </cell>
-          <cell r="H26">
-            <v>55031465.127539933</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27">
-            <v>2044</v>
-          </cell>
-          <cell r="H27">
-            <v>55483417.471983574</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="F28">
-            <v>2045</v>
-          </cell>
-          <cell r="H28">
-            <v>55830797.702772141</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="F29">
-            <v>2046</v>
-          </cell>
-          <cell r="H29">
-            <v>56096900.262841031</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="F30">
-            <v>2047</v>
-          </cell>
-          <cell r="H30">
-            <v>56300214.433481641</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="F31">
-            <v>2048</v>
-          </cell>
-          <cell r="H31">
-            <v>56455248.150785372</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="F32">
-            <v>2049</v>
-          </cell>
-          <cell r="H32">
-            <v>56573288.007629298</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="F33">
-            <v>2050</v>
-          </cell>
-          <cell r="H33">
-            <v>56663058.09199407</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8520,7 +7282,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
@@ -8531,12 +7293,18 @@
     <col min="2" max="2" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="25">
+        <v>45306</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -8544,62 +7312,62 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>51</v>
       </c>
@@ -10713,131 +9481,99 @@
         <v>21</v>
       </c>
       <c r="B6" s="13">
-        <f>'[1]Grid Battery Storage'!B6</f>
         <v>23809.523809523806</v>
       </c>
       <c r="C6">
-        <f>TREND('[1]Grid Battery Storage'!$B$6:$C$6,'[1]Grid Battery Storage'!$B$4:$C$4,'[1]Grid Battery Storage'!C8)</f>
         <v>23809.52380952239</v>
       </c>
       <c r="D6">
-        <f>TREND('[1]Grid Battery Storage'!$B$6:$C$6,'[1]Grid Battery Storage'!$B$4:$C$4,'[1]Grid Battery Storage'!D8)</f>
         <v>50000</v>
       </c>
       <c r="E6">
-        <f>TREND('[1]Grid Battery Storage'!$B$6:$C$6,'[1]Grid Battery Storage'!$B$4:$C$4,'[1]Grid Battery Storage'!E8)</f>
         <v>76190.47619047761</v>
       </c>
       <c r="F6">
-        <f>TREND('[1]Grid Battery Storage'!$B$6:$C$6,'[1]Grid Battery Storage'!$B$4:$C$4,'[1]Grid Battery Storage'!F8)</f>
         <v>102380.95238095522</v>
       </c>
       <c r="G6">
-        <f>TREND('[1]Grid Battery Storage'!$B$6:$C$6,'[1]Grid Battery Storage'!$B$4:$C$4,'[1]Grid Battery Storage'!G8)</f>
         <v>128571.42857143283</v>
       </c>
       <c r="H6">
-        <f>TREND('[1]Grid Battery Storage'!$B$6:$C$6,'[1]Grid Battery Storage'!$B$4:$C$4,'[1]Grid Battery Storage'!H8)</f>
         <v>154761.90476190299</v>
       </c>
       <c r="I6">
-        <f>TREND('[1]Grid Battery Storage'!$C$6:$D$6,'[1]Grid Battery Storage'!$C$4:$D$4,'[1]Grid Battery Storage'!I8)</f>
         <v>238095.2380952239</v>
       </c>
       <c r="J6">
-        <f>TREND('[1]Grid Battery Storage'!$C$6:$D$6,'[1]Grid Battery Storage'!$C$4:$D$4,'[1]Grid Battery Storage'!J8)</f>
         <v>321428.57142856717</v>
       </c>
       <c r="K6">
-        <f>TREND('[1]Grid Battery Storage'!$C$6:$D$6,'[1]Grid Battery Storage'!$C$4:$D$4,'[1]Grid Battery Storage'!K8)</f>
         <v>404761.90476191044</v>
       </c>
       <c r="L6">
-        <f>TREND('[1]Grid Battery Storage'!$C$6:$D$6,'[1]Grid Battery Storage'!$C$4:$D$4,'[1]Grid Battery Storage'!L8)</f>
         <v>488095.2380952239</v>
       </c>
       <c r="M6">
-        <f>TREND('[1]Grid Battery Storage'!$C$6:$D$6,'[1]Grid Battery Storage'!$C$4:$D$4,'[1]Grid Battery Storage'!M8)</f>
         <v>571428.57142856717</v>
       </c>
       <c r="N6">
-        <f>TREND('[1]Grid Battery Storage'!$D$6:$E$6,'[1]Grid Battery Storage'!$D$4:$E$4,'[1]Grid Battery Storage'!N8)</f>
         <v>685714.28571429849</v>
       </c>
       <c r="O6">
-        <f>TREND('[1]Grid Battery Storage'!$D$6:$E$6,'[1]Grid Battery Storage'!$D$4:$E$4,'[1]Grid Battery Storage'!O8)</f>
         <v>800000</v>
       </c>
       <c r="P6">
-        <f>TREND('[1]Grid Battery Storage'!$D$6:$E$6,'[1]Grid Battery Storage'!$D$4:$E$4,'[1]Grid Battery Storage'!P8)</f>
         <v>914285.71428573132</v>
       </c>
       <c r="Q6">
-        <f>TREND('[1]Grid Battery Storage'!$D$6:$E$6,'[1]Grid Battery Storage'!$D$4:$E$4,'[1]Grid Battery Storage'!Q8)</f>
         <v>1028571.4285714328</v>
       </c>
       <c r="R6">
-        <f>TREND('[1]Grid Battery Storage'!$D$6:$E$6,'[1]Grid Battery Storage'!$D$4:$E$4,'[1]Grid Battery Storage'!R8)</f>
         <v>1142857.1428571343</v>
       </c>
       <c r="S6">
-        <f>TREND('[1]Grid Battery Storage'!$E$6:$F$6,'[1]Grid Battery Storage'!$E$4:$F$4,'[1]Grid Battery Storage'!S8)</f>
         <v>1319047.6190475821</v>
       </c>
       <c r="T6">
-        <f>TREND('[1]Grid Battery Storage'!$E$6:$F$6,'[1]Grid Battery Storage'!$E$4:$F$4,'[1]Grid Battery Storage'!T8)</f>
         <v>1495238.0952380896</v>
       </c>
       <c r="U6">
-        <f>TREND('[1]Grid Battery Storage'!$E$6:$F$6,'[1]Grid Battery Storage'!$E$4:$F$4,'[1]Grid Battery Storage'!U8)</f>
         <v>1671428.5714285374</v>
       </c>
       <c r="V6">
-        <f>TREND('[1]Grid Battery Storage'!$E$6:$F$6,'[1]Grid Battery Storage'!$E$4:$F$4,'[1]Grid Battery Storage'!V8)</f>
         <v>1847619.0476190448</v>
       </c>
       <c r="W6">
-        <f>TREND('[1]Grid Battery Storage'!$E$6:$F$6,'[1]Grid Battery Storage'!$E$4:$F$4,'[1]Grid Battery Storage'!W8)</f>
         <v>2023809.5238094926</v>
       </c>
       <c r="X6">
-        <f>TREND('[1]Grid Battery Storage'!$F$6:$G$6,'[1]Grid Battery Storage'!$F$4:$G$4,'[1]Grid Battery Storage'!X8)</f>
         <v>2261904.7619047761</v>
       </c>
       <c r="Y6">
-        <f>TREND('[1]Grid Battery Storage'!$F$6:$G$6,'[1]Grid Battery Storage'!$F$4:$G$4,'[1]Grid Battery Storage'!Y8)</f>
         <v>2500000.0000000596</v>
       </c>
       <c r="Z6">
-        <f>TREND('[1]Grid Battery Storage'!$F$6:$G$6,'[1]Grid Battery Storage'!$F$4:$G$4,'[1]Grid Battery Storage'!Z8)</f>
         <v>2738095.2380952835</v>
       </c>
       <c r="AA6">
-        <f>TREND('[1]Grid Battery Storage'!$F$6:$G$6,'[1]Grid Battery Storage'!$F$4:$G$4,'[1]Grid Battery Storage'!AA8)</f>
         <v>2976190.4761905074</v>
       </c>
       <c r="AB6">
-        <f>TREND('[1]Grid Battery Storage'!$F$6:$G$6,'[1]Grid Battery Storage'!$F$4:$G$4,'[1]Grid Battery Storage'!AB8)</f>
         <v>3214285.7142857313</v>
       </c>
       <c r="AC6">
-        <f>TREND('[1]Grid Battery Storage'!$G$6:$H$6,'[1]Grid Battery Storage'!$G$4:$H$4,'[1]Grid Battery Storage'!AC8)</f>
         <v>3440476.1904761791</v>
       </c>
       <c r="AD6">
-        <f>TREND('[1]Grid Battery Storage'!$G$6:$H$6,'[1]Grid Battery Storage'!$G$4:$H$4,'[1]Grid Battery Storage'!AD8)</f>
         <v>3666666.6666666865</v>
       </c>
       <c r="AE6">
-        <f>TREND('[1]Grid Battery Storage'!$G$6:$H$6,'[1]Grid Battery Storage'!$G$4:$H$4,'[1]Grid Battery Storage'!AE8)</f>
         <v>3892857.1428571343</v>
       </c>
       <c r="AF6">
-        <f>TREND('[1]Grid Battery Storage'!$G$6:$H$6,'[1]Grid Battery Storage'!$G$4:$H$4,'[1]Grid Battery Storage'!AF8)</f>
         <v>4119047.6190475821</v>
       </c>
       <c r="AG6">
-        <f>TREND('[1]Grid Battery Storage'!$G$6:$H$6,'[1]Grid Battery Storage'!$G$4:$H$4,'[1]Grid Battery Storage'!AG8)</f>
         <v>4345238.0952380896</v>
       </c>
     </row>
@@ -10954,51 +9690,39 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <f>('[1]EV Batteries'!D10)*(1000)</f>
         <v>230000</v>
       </c>
       <c r="C12">
-        <f>('[1]EV Batteries'!E10)*(1000)</f>
         <v>490909.09090909094</v>
       </c>
       <c r="D12">
-        <f>('[1]EV Batteries'!F10)*(1000)</f>
         <v>751818.18181818188</v>
       </c>
       <c r="E12">
-        <f>('[1]EV Batteries'!G10)*(1000)</f>
         <v>1012727.2727272727</v>
       </c>
       <c r="F12">
-        <f>('[1]EV Batteries'!H10)*(1000)</f>
         <v>1273636.3636363638</v>
       </c>
       <c r="G12">
-        <f>('[1]EV Batteries'!I10)*(1000)</f>
         <v>1534545.4545454548</v>
       </c>
       <c r="H12">
-        <f>('[1]EV Batteries'!J10)*(1000)</f>
         <v>1795454.5454545456</v>
       </c>
       <c r="I12">
-        <f>('[1]EV Batteries'!K10)*(1000)</f>
         <v>2056363.6363636365</v>
       </c>
       <c r="J12">
-        <f>('[1]EV Batteries'!L10)*(1000)</f>
         <v>2317272.7272727275</v>
       </c>
       <c r="K12">
-        <f>('[1]EV Batteries'!M10)*(1000)</f>
         <v>2578181.8181818184</v>
       </c>
       <c r="L12">
-        <f>('[1]EV Batteries'!N10)*(1000)</f>
         <v>2839090.9090909096</v>
       </c>
       <c r="M12">
-        <f>('[1]EV Batteries'!O10)*(1000)</f>
         <v>3100000</v>
       </c>
     </row>
@@ -11007,43 +9731,33 @@
         <v>9</v>
       </c>
       <c r="N13">
-        <f>('[1]EV Batteries'!P10)*(1000)</f>
         <v>3424790.5975175635</v>
       </c>
       <c r="O13">
-        <f>('[1]EV Batteries'!Q10)*(1000)</f>
         <v>3746501.3723235992</v>
       </c>
       <c r="P13">
-        <f>('[1]EV Batteries'!R10)*(1000)</f>
         <v>4059905.3441759855</v>
       </c>
       <c r="Q13">
-        <f>('[1]EV Batteries'!S10)*(1000)</f>
         <v>4360313.8003408825</v>
       </c>
       <c r="R13">
-        <f>('[1]EV Batteries'!T10)*(1000)</f>
         <v>4643834.5503812227</v>
       </c>
       <c r="S13">
-        <f>('[1]EV Batteries'!U10)*(1000)</f>
         <v>4907531.6444603689</v>
       </c>
       <c r="T13">
-        <f>('[1]EV Batteries'!V10)*(1000)</f>
         <v>5149479.4152991604</v>
       </c>
       <c r="U13">
-        <f>('[1]EV Batteries'!W10)*(1000)</f>
         <v>5368721.7605243968</v>
       </c>
       <c r="V13">
-        <f>('[1]EV Batteries'!X10)*(1000)</f>
         <v>5565159.8514983393</v>
       </c>
       <c r="W13">
-        <f>('[1]EV Batteries'!Y10)*(1000)</f>
         <v>5739396.454520884</v>
       </c>
     </row>
@@ -11052,43 +9766,33 @@
         <v>10</v>
       </c>
       <c r="X14">
-        <f>('[1]EV Batteries'!Z10)*(1000)</f>
         <v>5892563.6833218094</v>
       </c>
       <c r="Y14">
-        <f>('[1]EV Batteries'!AA10)*(1000)</f>
         <v>6026155.5256387582</v>
       </c>
       <c r="Z14">
-        <f>('[1]EV Batteries'!AB10)*(1000)</f>
         <v>6141879.3779363325</v>
       </c>
       <c r="AA14">
-        <f>('[1]EV Batteries'!AC10)*(1000)</f>
         <v>6241534.0085637206</v>
       </c>
       <c r="AB14">
-        <f>('[1]EV Batteries'!AD10)*(1000)</f>
         <v>6326915.950859325</v>
       </c>
       <c r="AC14">
-        <f>('[1]EV Batteries'!AE10)*(1000)</f>
         <v>6399752.6614421792</v>
       </c>
       <c r="AD14">
-        <f>('[1]EV Batteries'!AF10)*(1000)</f>
         <v>6461658.7298551602</v>
       </c>
       <c r="AE14">
-        <f>('[1]EV Batteries'!AG10)*(1000)</f>
         <v>6514110.623151809</v>
       </c>
       <c r="AF14">
-        <f>('[1]EV Batteries'!AH10)*(1000)</f>
         <v>6558435.4749555839</v>
       </c>
       <c r="AG14">
-        <f>('[1]EV Batteries'!AI10)*(1000)</f>
         <v>6595809.921999068</v>
       </c>
     </row>

--- a/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
+++ b/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\NV\endo-learn\BGBSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\endo-learn\BGBSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{325F5745-5E65-4456-A8DC-B18189E45D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CF225A-7568-4778-89A3-1CD84988F734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>BGBSC BAU Global Battery Storage Capacity</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>https://about.bnef.com/electric-vehicle-outlook/</t>
-  </si>
-  <si>
-    <t>Nevada</t>
   </si>
 </sst>
 </file>
@@ -271,7 +268,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -303,7 +300,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2841,7 +2837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -2852,18 +2848,12 @@
     <col min="2" max="2" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="18">
-        <v>45531</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2871,57 +2861,57 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>2024</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>2024</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>15</v>
       </c>
